--- a/江西大学投档线-文件转换_数据清洗/output_excel/默认筛选_二本.xlsx
+++ b/江西大学投档线-文件转换_数据清洗/output_excel/默认筛选_二本.xlsx
@@ -2620,11 +2620,6 @@
       <filters>
         <filter val="理工"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="lessThan" val="492"/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A55:J875">
@@ -2933,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H284" sqref="H284"/>
+    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
+      <selection activeCell="O780" sqref="O780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2978,7 +2973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1361</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v>33512</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>843</v>
       </c>
@@ -3018,7 +3013,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>668</v>
       </c>
@@ -3038,7 +3033,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>956</v>
       </c>
@@ -3058,7 +3053,7 @@
         <v>48467</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>991</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>49026</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>912</v>
       </c>
@@ -3098,7 +3093,7 @@
         <v>49371</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>675</v>
       </c>
@@ -3118,7 +3113,7 @@
         <v>50673</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>691</v>
       </c>
@@ -3138,7 +3133,7 @@
         <v>50441</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>676</v>
       </c>
@@ -3158,7 +3153,7 @@
         <v>51629</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1176</v>
       </c>
@@ -3178,7 +3173,7 @@
         <v>51431</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>999</v>
       </c>
@@ -3198,7 +3193,7 @@
         <v>51217</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>805</v>
       </c>
@@ -3218,7 +3213,7 @@
         <v>50945</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>814</v>
       </c>
@@ -3238,7 +3233,7 @@
         <v>53056</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>851</v>
       </c>
@@ -3258,7 +3253,7 @@
         <v>52987</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>952</v>
       </c>
@@ -3278,7 +3273,7 @@
         <v>52712</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>983</v>
       </c>
@@ -3298,7 +3293,7 @@
         <v>52639</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>803</v>
       </c>
@@ -3318,7 +3313,7 @@
         <v>53879</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1021</v>
       </c>
@@ -3338,7 +3333,7 @@
         <v>54865</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>911</v>
       </c>
@@ -3358,7 +3353,7 @@
         <v>54831</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>682</v>
       </c>
@@ -3378,7 +3373,7 @@
         <v>54645</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>769</v>
       </c>
@@ -3398,7 +3393,7 @@
         <v>54564</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>687</v>
       </c>
@@ -3418,7 +3413,7 @@
         <v>54491</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>686</v>
       </c>
@@ -3438,7 +3433,7 @@
         <v>54441</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1139</v>
       </c>
@@ -3458,7 +3453,7 @@
         <v>54427</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>942</v>
       </c>
@@ -3478,7 +3473,7 @@
         <v>54424</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>817</v>
       </c>
@@ -3498,7 +3493,7 @@
         <v>54344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1392</v>
       </c>
@@ -3518,7 +3513,7 @@
         <v>55811</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>944</v>
       </c>
@@ -3538,7 +3533,7 @@
         <v>55772</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1023</v>
       </c>
@@ -3558,7 +3553,7 @@
         <v>55738</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>822</v>
       </c>
@@ -3578,7 +3573,7 @@
         <v>55642</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>997</v>
       </c>
@@ -3598,7 +3593,7 @@
         <v>55241</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>889</v>
       </c>
@@ -3618,7 +3613,7 @@
         <v>55151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1154</v>
       </c>
@@ -3638,7 +3633,7 @@
         <v>55147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>882</v>
       </c>
@@ -3658,7 +3653,7 @@
         <v>55126</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1404</v>
       </c>
@@ -3678,7 +3673,7 @@
         <v>55021</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>811</v>
       </c>
@@ -3698,7 +3693,7 @@
         <v>56718</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>827</v>
       </c>
@@ -3718,7 +3713,7 @@
         <v>56622</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>824</v>
       </c>
@@ -3738,7 +3733,7 @@
         <v>56583</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1397</v>
       </c>
@@ -3758,7 +3753,7 @@
         <v>56570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1450</v>
       </c>
@@ -3778,7 +3773,7 @@
         <v>56550</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>848</v>
       </c>
@@ -3798,7 +3793,7 @@
         <v>56452</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1366</v>
       </c>
@@ -3818,7 +3813,7 @@
         <v>56444</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>809</v>
       </c>
@@ -3838,7 +3833,7 @@
         <v>56165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>938</v>
       </c>
@@ -3858,7 +3853,7 @@
         <v>56113</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>987</v>
       </c>
@@ -3878,7 +3873,7 @@
         <v>56093</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>754</v>
       </c>
@@ -3898,7 +3893,7 @@
         <v>56052</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>746</v>
       </c>
@@ -3918,7 +3913,7 @@
         <v>55970</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1319</v>
       </c>
@@ -3938,7 +3933,7 @@
         <v>57557</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>884</v>
       </c>
@@ -3958,7 +3953,7 @@
         <v>57503</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>810</v>
       </c>
@@ -3978,7 +3973,7 @@
         <v>57348</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1007</v>
       </c>
@@ -3998,7 +3993,7 @@
         <v>57345</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>694</v>
       </c>
@@ -4018,7 +4013,7 @@
         <v>57032</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>855</v>
       </c>
@@ -4038,7 +4033,7 @@
         <v>56950</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1471</v>
       </c>
@@ -4070,7 +4065,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>818</v>
       </c>
@@ -4090,7 +4085,7 @@
         <v>56728</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>946</v>
       </c>
@@ -4110,7 +4105,7 @@
         <v>58022</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>994</v>
       </c>
@@ -4130,7 +4125,7 @@
         <v>57936</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>955</v>
       </c>
@@ -4150,7 +4145,7 @@
         <v>57861</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>922</v>
       </c>
@@ -4170,7 +4165,7 @@
         <v>57819</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>677</v>
       </c>
@@ -4190,7 +4185,7 @@
         <v>57733</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>834</v>
       </c>
@@ -4210,7 +4205,7 @@
         <v>57716</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>714</v>
       </c>
@@ -4230,7 +4225,7 @@
         <v>59373</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1472</v>
       </c>
@@ -4262,7 +4257,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1396</v>
       </c>
@@ -4282,7 +4277,7 @@
         <v>59086</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>963</v>
       </c>
@@ -4302,7 +4297,7 @@
         <v>59008</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1357</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>58901</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1388</v>
       </c>
@@ -4342,7 +4337,7 @@
         <v>58809</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>749</v>
       </c>
@@ -4362,7 +4357,7 @@
         <v>58764</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>883</v>
       </c>
@@ -4382,7 +4377,7 @@
         <v>58736</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>928</v>
       </c>
@@ -4402,7 +4397,7 @@
         <v>58725</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>706</v>
       </c>
@@ -4422,7 +4417,7 @@
         <v>58692</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>688</v>
       </c>
@@ -4442,7 +4437,7 @@
         <v>58666</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1052</v>
       </c>
@@ -4462,7 +4457,7 @@
         <v>58648</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>933</v>
       </c>
@@ -4482,7 +4477,7 @@
         <v>58589</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1039</v>
       </c>
@@ -4502,7 +4497,7 @@
         <v>58554</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1169</v>
       </c>
@@ -4522,7 +4517,7 @@
         <v>58518</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1493</v>
       </c>
@@ -4554,7 +4549,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>846</v>
       </c>
@@ -4574,7 +4569,7 @@
         <v>60297</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>886</v>
       </c>
@@ -4594,7 +4589,7 @@
         <v>60234</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>881</v>
       </c>
@@ -4614,7 +4609,7 @@
         <v>60188</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>868</v>
       </c>
@@ -4634,7 +4629,7 @@
         <v>60077</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>750</v>
       </c>
@@ -4654,7 +4649,7 @@
         <v>59933</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>967</v>
       </c>
@@ -4674,7 +4669,7 @@
         <v>59818</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>764</v>
       </c>
@@ -4694,7 +4689,7 @@
         <v>59789</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>840</v>
       </c>
@@ -4714,24 +4709,24 @@
         <v>59643</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>1451</v>
+        <v>1470</v>
       </c>
       <c r="B87" t="s">
         <v>670</v>
       </c>
       <c r="C87">
-        <v>8002</v>
+        <v>8223</v>
       </c>
       <c r="D87" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E87">
         <v>510</v>
       </c>
       <c r="F87">
-        <v>61235</v>
+        <v>60736</v>
       </c>
       <c r="G87" t="s">
         <v>613</v>
@@ -4746,7 +4741,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1028</v>
       </c>
@@ -4766,7 +4761,7 @@
         <v>61231</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>984</v>
       </c>
@@ -4786,7 +4781,7 @@
         <v>61208</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>685</v>
       </c>
@@ -4806,7 +4801,7 @@
         <v>61116</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>837</v>
       </c>
@@ -4826,7 +4821,7 @@
         <v>61030</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1452</v>
       </c>
@@ -4858,7 +4853,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>703</v>
       </c>
@@ -4878,7 +4873,7 @@
         <v>60997</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>950</v>
       </c>
@@ -4898,7 +4893,7 @@
         <v>60843</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1398</v>
       </c>
@@ -4918,24 +4913,24 @@
         <v>60764</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>1470</v>
+        <v>1451</v>
       </c>
       <c r="B96" t="s">
         <v>670</v>
       </c>
       <c r="C96">
-        <v>8223</v>
+        <v>8002</v>
       </c>
       <c r="D96" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="E96">
         <v>510</v>
       </c>
       <c r="F96">
-        <v>60736</v>
+        <v>61235</v>
       </c>
       <c r="G96" t="s">
         <v>613</v>
@@ -4950,7 +4945,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>964</v>
       </c>
@@ -4970,7 +4965,7 @@
         <v>60699</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>825</v>
       </c>
@@ -4990,7 +4985,7 @@
         <v>60543</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>957</v>
       </c>
@@ -5010,7 +5005,7 @@
         <v>60532</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>924</v>
       </c>
@@ -5030,7 +5025,7 @@
         <v>60519</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1387</v>
       </c>
@@ -5050,7 +5045,7 @@
         <v>60515</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>921</v>
       </c>
@@ -5070,7 +5065,7 @@
         <v>60423</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>812</v>
       </c>
@@ -5090,7 +5085,7 @@
         <v>60412</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>755</v>
       </c>
@@ -5110,7 +5105,7 @@
         <v>62087</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1058</v>
       </c>
@@ -5130,7 +5125,7 @@
         <v>61977</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>941</v>
       </c>
@@ -5150,7 +5145,7 @@
         <v>61831</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>679</v>
       </c>
@@ -5170,7 +5165,7 @@
         <v>61788</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>831</v>
       </c>
@@ -5190,7 +5185,7 @@
         <v>61749</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>871</v>
       </c>
@@ -5210,7 +5205,7 @@
         <v>61634</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>878</v>
       </c>
@@ -5230,7 +5225,7 @@
         <v>61624</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>932</v>
       </c>
@@ -5250,7 +5245,7 @@
         <v>61586</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>986</v>
       </c>
@@ -5270,7 +5265,7 @@
         <v>61569</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>923</v>
       </c>
@@ -5290,7 +5285,7 @@
         <v>61522</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1322</v>
       </c>
@@ -5310,7 +5305,7 @@
         <v>61328</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>826</v>
       </c>
@@ -5330,7 +5325,7 @@
         <v>63095</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>989</v>
       </c>
@@ -5350,7 +5345,7 @@
         <v>63027</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>874</v>
       </c>
@@ -5370,7 +5365,7 @@
         <v>63023</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>1002</v>
       </c>
@@ -5390,7 +5385,7 @@
         <v>62931</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>1032</v>
       </c>
@@ -5410,7 +5405,7 @@
         <v>62722</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>850</v>
       </c>
@@ -5430,7 +5425,7 @@
         <v>62700</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>913</v>
       </c>
@@ -5450,7 +5445,7 @@
         <v>62669</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>937</v>
       </c>
@@ -5470,7 +5465,7 @@
         <v>62664</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>929</v>
       </c>
@@ -5490,7 +5485,7 @@
         <v>62658</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>852</v>
       </c>
@@ -5510,7 +5505,7 @@
         <v>62612</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>847</v>
       </c>
@@ -5530,7 +5525,7 @@
         <v>62530</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1275</v>
       </c>
@@ -5550,7 +5545,7 @@
         <v>62460</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1161</v>
       </c>
@@ -5570,7 +5565,7 @@
         <v>62451</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>1037</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>62441</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>752</v>
       </c>
@@ -5610,7 +5605,7 @@
         <v>62251</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>1469</v>
       </c>
@@ -5642,7 +5637,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>1353</v>
       </c>
@@ -5662,7 +5657,7 @@
         <v>63896</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1026</v>
       </c>
@@ -5682,7 +5677,7 @@
         <v>63865</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>872</v>
       </c>
@@ -5702,7 +5697,7 @@
         <v>63489</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>940</v>
       </c>
@@ -5722,7 +5717,7 @@
         <v>63457</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>865</v>
       </c>
@@ -5742,7 +5737,7 @@
         <v>63343</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>841</v>
       </c>
@@ -5762,7 +5757,7 @@
         <v>63281</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>823</v>
       </c>
@@ -5782,7 +5777,7 @@
         <v>63135</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1025</v>
       </c>
@@ -5802,7 +5797,7 @@
         <v>64792</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>733</v>
       </c>
@@ -5822,7 +5817,7 @@
         <v>64780</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1008</v>
       </c>
@@ -5842,7 +5837,7 @@
         <v>64643</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>870</v>
       </c>
@@ -5862,7 +5857,7 @@
         <v>64597</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>954</v>
       </c>
@@ -5882,7 +5877,7 @@
         <v>64440</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>947</v>
       </c>
@@ -5902,7 +5897,7 @@
         <v>64435</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1423</v>
       </c>
@@ -5922,7 +5917,7 @@
         <v>64322</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>701</v>
       </c>
@@ -5942,7 +5937,7 @@
         <v>64316</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1040</v>
       </c>
@@ -5962,24 +5957,24 @@
         <v>64107</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B147" t="s">
         <v>670</v>
       </c>
       <c r="C147">
-        <v>8151</v>
+        <v>8202</v>
       </c>
       <c r="D147" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E147">
         <v>505</v>
       </c>
       <c r="F147">
-        <v>65685</v>
+        <v>65140</v>
       </c>
       <c r="G147" t="s">
         <v>613</v>
@@ -5994,7 +5989,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>936</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>65364</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>699</v>
       </c>
@@ -6034,24 +6029,24 @@
         <v>65324</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B150" t="s">
         <v>670</v>
       </c>
       <c r="C150">
-        <v>8202</v>
+        <v>8151</v>
       </c>
       <c r="D150" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E150">
         <v>505</v>
       </c>
       <c r="F150">
-        <v>65140</v>
+        <v>65685</v>
       </c>
       <c r="G150" t="s">
         <v>613</v>
@@ -6066,7 +6061,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>996</v>
       </c>
@@ -6086,7 +6081,7 @@
         <v>65093</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>747</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>64987</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>695</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>66806</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>1029</v>
       </c>
@@ -6146,7 +6141,7 @@
         <v>66400</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>930</v>
       </c>
@@ -6166,7 +6161,7 @@
         <v>66349</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>710</v>
       </c>
@@ -6186,7 +6181,7 @@
         <v>66284</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>751</v>
       </c>
@@ -6206,7 +6201,7 @@
         <v>66265</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>1364</v>
       </c>
@@ -6226,7 +6221,7 @@
         <v>66130</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>1009</v>
       </c>
@@ -6246,7 +6241,7 @@
         <v>66068</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>838</v>
       </c>
@@ -6266,7 +6261,7 @@
         <v>66046</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>720</v>
       </c>
@@ -6286,7 +6281,7 @@
         <v>66006</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>864</v>
       </c>
@@ -6306,7 +6301,7 @@
         <v>67638</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>993</v>
       </c>
@@ -6326,7 +6321,7 @@
         <v>67629</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>820</v>
       </c>
@@ -6346,7 +6341,7 @@
         <v>67588</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>985</v>
       </c>
@@ -6366,7 +6361,7 @@
         <v>67545</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>1167</v>
       </c>
@@ -6386,7 +6381,7 @@
         <v>67480</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>777</v>
       </c>
@@ -6406,7 +6401,7 @@
         <v>67399</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>1492</v>
       </c>
@@ -6438,7 +6433,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>990</v>
       </c>
@@ -6458,7 +6453,7 @@
         <v>67294</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>1321</v>
       </c>
@@ -6478,7 +6473,7 @@
         <v>67126</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>968</v>
       </c>
@@ -6498,7 +6493,7 @@
         <v>67019</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>859</v>
       </c>
@@ -6518,7 +6513,7 @@
         <v>67008</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>916</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>66865</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>1284</v>
       </c>
@@ -6558,7 +6553,7 @@
         <v>68665</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>971</v>
       </c>
@@ -6578,7 +6573,7 @@
         <v>68656</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>1057</v>
       </c>
@@ -6598,7 +6593,7 @@
         <v>68650</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>877</v>
       </c>
@@ -6618,7 +6613,7 @@
         <v>68615</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>885</v>
       </c>
@@ -6638,7 +6633,7 @@
         <v>68479</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>888</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>68452</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>760</v>
       </c>
@@ -6678,7 +6673,7 @@
         <v>68189</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>904</v>
       </c>
@@ -6698,7 +6693,7 @@
         <v>68035</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>774</v>
       </c>
@@ -6718,7 +6713,7 @@
         <v>67870</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>718</v>
       </c>
@@ -6738,7 +6733,7 @@
         <v>67847</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>758</v>
       </c>
@@ -6758,7 +6753,7 @@
         <v>67828</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>1420</v>
       </c>
@@ -6778,7 +6773,7 @@
         <v>69433</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1323</v>
       </c>
@@ -6798,7 +6793,7 @@
         <v>69412</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>951</v>
       </c>
@@ -6818,7 +6813,7 @@
         <v>69316</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>918</v>
       </c>
@@ -6838,7 +6833,7 @@
         <v>69242</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1001</v>
       </c>
@@ -6858,7 +6853,7 @@
         <v>69172</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>879</v>
       </c>
@@ -6878,7 +6873,7 @@
         <v>70627</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>943</v>
       </c>
@@ -6898,7 +6893,7 @@
         <v>70570</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>708</v>
       </c>
@@ -6918,7 +6913,7 @@
         <v>70532</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>917</v>
       </c>
@@ -6938,7 +6933,7 @@
         <v>70294</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>690</v>
       </c>
@@ -6958,7 +6953,7 @@
         <v>70166</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>861</v>
       </c>
@@ -6978,7 +6973,7 @@
         <v>70138</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>844</v>
       </c>
@@ -6998,7 +6993,7 @@
         <v>70078</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>935</v>
       </c>
@@ -7018,7 +7013,7 @@
         <v>69838</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>919</v>
       </c>
@@ -7038,7 +7033,7 @@
         <v>69832</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>1455</v>
       </c>
@@ -7070,7 +7065,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>1184</v>
       </c>
@@ -7090,7 +7085,7 @@
         <v>71547</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>1339</v>
       </c>
@@ -7110,7 +7105,7 @@
         <v>71506</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>1369</v>
       </c>
@@ -7130,7 +7125,7 @@
         <v>71449</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>880</v>
       </c>
@@ -7150,7 +7145,7 @@
         <v>71433</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>958</v>
       </c>
@@ -7170,7 +7165,7 @@
         <v>71226</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>962</v>
       </c>
@@ -7190,7 +7185,7 @@
         <v>71131</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>1354</v>
       </c>
@@ -7210,7 +7205,7 @@
         <v>70852</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>807</v>
       </c>
@@ -7230,7 +7225,7 @@
         <v>70797</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>816</v>
       </c>
@@ -7250,7 +7245,7 @@
         <v>70753</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>700</v>
       </c>
@@ -7270,7 +7265,7 @@
         <v>72496</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>914</v>
       </c>
@@ -7290,7 +7285,7 @@
         <v>72408</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>866</v>
       </c>
@@ -7310,7 +7305,7 @@
         <v>72368</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>1248</v>
       </c>
@@ -7330,7 +7325,7 @@
         <v>72261</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>869</v>
       </c>
@@ -7350,7 +7345,7 @@
         <v>71926</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>853</v>
       </c>
@@ -7370,7 +7365,7 @@
         <v>71760</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>1320</v>
       </c>
@@ -7390,7 +7385,7 @@
         <v>73587</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>1367</v>
       </c>
@@ -7410,30 +7405,30 @@
         <v>73472</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="B217" t="s">
         <v>670</v>
       </c>
       <c r="C217">
-        <v>8226</v>
+        <v>8211</v>
       </c>
       <c r="D217" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="E217">
         <v>497</v>
       </c>
       <c r="F217">
-        <v>73420</v>
+        <v>72776</v>
       </c>
       <c r="G217" t="s">
         <v>613</v>
       </c>
       <c r="H217" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I217" t="s">
         <v>615</v>
@@ -7442,7 +7437,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>763</v>
       </c>
@@ -7462,7 +7457,7 @@
         <v>73413</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>670</v>
       </c>
@@ -7482,7 +7477,7 @@
         <v>73269</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>1406</v>
       </c>
@@ -7502,7 +7497,7 @@
         <v>73229</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>1003</v>
       </c>
@@ -7522,7 +7517,7 @@
         <v>73088</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>948</v>
       </c>
@@ -7542,7 +7537,7 @@
         <v>73079</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>1409</v>
       </c>
@@ -7562,7 +7557,7 @@
         <v>72988</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>828</v>
       </c>
@@ -7582,7 +7577,7 @@
         <v>72927</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>773</v>
       </c>
@@ -7602,30 +7597,30 @@
         <v>72879</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>1461</v>
+        <v>1473</v>
       </c>
       <c r="B226" t="s">
         <v>670</v>
       </c>
       <c r="C226">
-        <v>8211</v>
+        <v>8226</v>
       </c>
       <c r="D226" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E226">
         <v>497</v>
       </c>
       <c r="F226">
-        <v>72776</v>
+        <v>73420</v>
       </c>
       <c r="G226" t="s">
         <v>613</v>
       </c>
       <c r="H226" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="I226" t="s">
         <v>615</v>
@@ -7634,7 +7629,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>753</v>
       </c>
@@ -7654,7 +7649,7 @@
         <v>72755</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>712</v>
       </c>
@@ -7674,7 +7669,7 @@
         <v>74518</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>1338</v>
       </c>
@@ -7694,7 +7689,7 @@
         <v>74476</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>1258</v>
       </c>
@@ -7714,7 +7709,7 @@
         <v>74403</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>1466</v>
       </c>
@@ -7746,7 +7741,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>863</v>
       </c>
@@ -7766,7 +7761,7 @@
         <v>74275</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>1019</v>
       </c>
@@ -7786,7 +7781,7 @@
         <v>74267</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>808</v>
       </c>
@@ -7806,7 +7801,7 @@
         <v>73703</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>1395</v>
       </c>
@@ -7826,7 +7821,7 @@
         <v>73675</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>1400</v>
       </c>
@@ -7846,7 +7841,7 @@
         <v>73605</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>876</v>
       </c>
@@ -7866,7 +7861,7 @@
         <v>75488</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>1336</v>
       </c>
@@ -7886,7 +7881,7 @@
         <v>75455</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>806</v>
       </c>
@@ -7906,7 +7901,7 @@
         <v>75206</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>862</v>
       </c>
@@ -7926,7 +7921,7 @@
         <v>75079</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>830</v>
       </c>
@@ -7946,7 +7941,7 @@
         <v>74992</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>896</v>
       </c>
@@ -7966,7 +7961,7 @@
         <v>74912</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>1016</v>
       </c>
@@ -7986,7 +7981,7 @@
         <v>74830</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>819</v>
       </c>
@@ -8006,7 +8001,7 @@
         <v>74826</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>892</v>
       </c>
@@ -8026,7 +8021,7 @@
         <v>74707</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>1024</v>
       </c>
@@ -8046,7 +8041,7 @@
         <v>76471</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>931</v>
       </c>
@@ -8066,7 +8061,7 @@
         <v>76357</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>707</v>
       </c>
@@ -8086,7 +8081,7 @@
         <v>76231</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>683</v>
       </c>
@@ -8106,7 +8101,7 @@
         <v>76120</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>1342</v>
       </c>
@@ -8126,7 +8121,7 @@
         <v>75869</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>1486</v>
       </c>
@@ -8158,7 +8153,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>761</v>
       </c>
@@ -8178,7 +8173,7 @@
         <v>75697</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>906</v>
       </c>
@@ -8198,7 +8193,7 @@
         <v>77149</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>953</v>
       </c>
@@ -8218,7 +8213,7 @@
         <v>77143</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>926</v>
       </c>
@@ -8238,7 +8233,7 @@
         <v>77111</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>961</v>
       </c>
@@ -8258,7 +8253,7 @@
         <v>77026</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>1358</v>
       </c>
@@ -8278,7 +8273,7 @@
         <v>76960</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>1044</v>
       </c>
@@ -8298,7 +8293,7 @@
         <v>76704</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>856</v>
       </c>
@@ -8318,7 +8313,7 @@
         <v>76697</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>678</v>
       </c>
@@ -8338,7 +8333,7 @@
         <v>78540</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>1391</v>
       </c>
@@ -8358,7 +8353,7 @@
         <v>78486</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>927</v>
       </c>
@@ -8378,7 +8373,7 @@
         <v>78438</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>981</v>
       </c>
@@ -8398,7 +8393,7 @@
         <v>78382</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>849</v>
       </c>
@@ -8418,7 +8413,7 @@
         <v>78353</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>801</v>
       </c>
@@ -8438,7 +8433,7 @@
         <v>78347</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>1508</v>
       </c>
@@ -8458,30 +8453,30 @@
         <v>78318</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>1464</v>
+        <v>1487</v>
       </c>
       <c r="B267" t="s">
         <v>670</v>
       </c>
       <c r="C267">
-        <v>8216</v>
+        <v>8258</v>
       </c>
       <c r="D267" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E267">
         <v>492</v>
       </c>
       <c r="F267">
-        <v>78303</v>
+        <v>77669</v>
       </c>
       <c r="G267" t="s">
         <v>613</v>
       </c>
       <c r="H267" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="I267" t="s">
         <v>615</v>
@@ -8490,30 +8485,30 @@
         <v>616</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>1456</v>
+        <v>1490</v>
       </c>
       <c r="B268" t="s">
         <v>670</v>
       </c>
       <c r="C268">
-        <v>8206</v>
+        <v>8268</v>
       </c>
       <c r="D268" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E268">
         <v>492</v>
       </c>
       <c r="F268">
-        <v>78278</v>
+        <v>77699</v>
       </c>
       <c r="G268" t="s">
         <v>613</v>
       </c>
       <c r="H268" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="I268" t="s">
         <v>615</v>
@@ -8522,7 +8517,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>895</v>
       </c>
@@ -8542,30 +8537,30 @@
         <v>77959</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270">
-        <v>1490</v>
+        <v>1456</v>
       </c>
       <c r="B270" t="s">
         <v>670</v>
       </c>
       <c r="C270">
-        <v>8268</v>
+        <v>8206</v>
       </c>
       <c r="D270" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="E270">
         <v>492</v>
       </c>
       <c r="F270">
-        <v>77699</v>
+        <v>78278</v>
       </c>
       <c r="G270" t="s">
         <v>613</v>
       </c>
       <c r="H270" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="I270" t="s">
         <v>615</v>
@@ -8574,30 +8569,30 @@
         <v>616</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271">
-        <v>1487</v>
+        <v>1464</v>
       </c>
       <c r="B271" t="s">
         <v>670</v>
       </c>
       <c r="C271">
-        <v>8258</v>
+        <v>8216</v>
       </c>
       <c r="D271" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="E271">
         <v>492</v>
       </c>
       <c r="F271">
-        <v>77669</v>
+        <v>78303</v>
       </c>
       <c r="G271" t="s">
         <v>613</v>
       </c>
       <c r="H271" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="I271" t="s">
         <v>615</v>
@@ -9240,28 +9235,28 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B303" t="s">
         <v>670</v>
       </c>
       <c r="C303">
-        <v>8207</v>
+        <v>8210</v>
       </c>
       <c r="D303" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E303">
         <v>489</v>
       </c>
       <c r="F303">
-        <v>81338</v>
+        <v>81208</v>
       </c>
       <c r="G303" t="s">
         <v>613</v>
       </c>
       <c r="H303" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="I303" t="s">
         <v>615</v>
@@ -9292,28 +9287,28 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A305">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B305" t="s">
         <v>670</v>
       </c>
       <c r="C305">
-        <v>8210</v>
+        <v>8207</v>
       </c>
       <c r="D305" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E305">
         <v>489</v>
       </c>
       <c r="F305">
-        <v>81208</v>
+        <v>81338</v>
       </c>
       <c r="G305" t="s">
         <v>613</v>
       </c>
       <c r="H305" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I305" t="s">
         <v>615</v>
@@ -11220,28 +11215,28 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399">
-        <v>1501</v>
+        <v>1465</v>
       </c>
       <c r="B399" t="s">
         <v>670</v>
       </c>
       <c r="C399">
-        <v>8307</v>
+        <v>8217</v>
       </c>
       <c r="D399" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="E399">
         <v>477</v>
       </c>
       <c r="F399">
-        <v>94857</v>
+        <v>93796</v>
       </c>
       <c r="G399" t="s">
         <v>613</v>
       </c>
       <c r="H399" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="I399" t="s">
         <v>615</v>
@@ -11352,28 +11347,28 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A405">
-        <v>1465</v>
+        <v>1501</v>
       </c>
       <c r="B405" t="s">
         <v>670</v>
       </c>
       <c r="C405">
-        <v>8217</v>
+        <v>8307</v>
       </c>
       <c r="D405" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="E405">
         <v>477</v>
       </c>
       <c r="F405">
-        <v>93796</v>
+        <v>94857</v>
       </c>
       <c r="G405" t="s">
         <v>613</v>
       </c>
       <c r="H405" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="I405" t="s">
         <v>615</v>
@@ -11968,28 +11963,28 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A434">
-        <v>1502</v>
+        <v>1463</v>
       </c>
       <c r="B434" t="s">
         <v>670</v>
       </c>
       <c r="C434">
-        <v>8308</v>
+        <v>8215</v>
       </c>
       <c r="D434" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="E434">
         <v>474</v>
       </c>
       <c r="F434">
-        <v>97556</v>
+        <v>97372</v>
       </c>
       <c r="G434" t="s">
         <v>613</v>
       </c>
       <c r="H434" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="I434" t="s">
         <v>615</v>
@@ -12040,28 +12035,28 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A437">
-        <v>1463</v>
+        <v>1502</v>
       </c>
       <c r="B437" t="s">
         <v>670</v>
       </c>
       <c r="C437">
-        <v>8215</v>
+        <v>8308</v>
       </c>
       <c r="D437" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="E437">
         <v>474</v>
       </c>
       <c r="F437">
-        <v>97372</v>
+        <v>97556</v>
       </c>
       <c r="G437" t="s">
         <v>613</v>
       </c>
       <c r="H437" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="I437" t="s">
         <v>615</v>
@@ -12272,28 +12267,28 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A448">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B448" t="s">
         <v>670</v>
       </c>
       <c r="C448">
-        <v>8231</v>
+        <v>8232</v>
       </c>
       <c r="D448" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E448">
         <v>473</v>
       </c>
       <c r="F448">
-        <v>99300</v>
+        <v>99258</v>
       </c>
       <c r="G448" t="s">
         <v>613</v>
       </c>
       <c r="H448" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="I448" t="s">
         <v>615</v>
@@ -12344,28 +12339,28 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A451">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B451" t="s">
         <v>670</v>
       </c>
       <c r="C451">
-        <v>8232</v>
+        <v>8231</v>
       </c>
       <c r="D451" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E451">
         <v>473</v>
       </c>
       <c r="F451">
-        <v>99258</v>
+        <v>99300</v>
       </c>
       <c r="G451" t="s">
         <v>613</v>
       </c>
       <c r="H451" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="I451" t="s">
         <v>615</v>
@@ -16364,28 +16359,28 @@
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A649">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="B649" t="s">
         <v>670</v>
       </c>
       <c r="C649">
-        <v>8302</v>
+        <v>8309</v>
       </c>
       <c r="D649" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="E649">
         <v>460</v>
       </c>
       <c r="F649">
-        <v>114079</v>
+        <v>113348</v>
       </c>
       <c r="G649" t="s">
         <v>613</v>
       </c>
       <c r="H649" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="I649" t="s">
         <v>615</v>
@@ -16456,66 +16451,66 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A653">
-        <v>1488</v>
+        <v>1499</v>
       </c>
       <c r="B653" t="s">
         <v>670</v>
       </c>
       <c r="C653">
-        <v>8259</v>
+        <v>8305</v>
       </c>
       <c r="D653" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="E653">
         <v>460</v>
       </c>
       <c r="F653">
-        <v>113566</v>
+        <v>113446</v>
       </c>
       <c r="G653" t="s">
         <v>613</v>
       </c>
       <c r="H653" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="I653" t="s">
         <v>615</v>
       </c>
       <c r="J653" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A654">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="B654" t="s">
         <v>670</v>
       </c>
       <c r="C654">
-        <v>8305</v>
+        <v>8259</v>
       </c>
       <c r="D654" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="E654">
         <v>460</v>
       </c>
       <c r="F654">
-        <v>113446</v>
+        <v>113566</v>
       </c>
       <c r="G654" t="s">
         <v>613</v>
       </c>
       <c r="H654" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="I654" t="s">
         <v>615</v>
       </c>
       <c r="J654" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.15">
@@ -16540,28 +16535,28 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A656">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="B656" t="s">
         <v>670</v>
       </c>
       <c r="C656">
-        <v>8309</v>
+        <v>8302</v>
       </c>
       <c r="D656" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E656">
         <v>460</v>
       </c>
       <c r="F656">
-        <v>113348</v>
+        <v>114079</v>
       </c>
       <c r="G656" t="s">
         <v>613</v>
       </c>
       <c r="H656" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="I656" t="s">
         <v>615</v>
@@ -17416,34 +17411,34 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A698">
-        <v>1484</v>
+        <v>1505</v>
       </c>
       <c r="B698" t="s">
         <v>670</v>
       </c>
       <c r="C698">
-        <v>8246</v>
+        <v>8313</v>
       </c>
       <c r="D698" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="E698">
         <v>456</v>
       </c>
       <c r="F698">
-        <v>118417</v>
+        <v>117827</v>
       </c>
       <c r="G698" t="s">
         <v>613</v>
       </c>
       <c r="H698" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="I698" t="s">
         <v>615</v>
       </c>
       <c r="J698" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.15">
@@ -17508,34 +17503,34 @@
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A702">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="B702" t="s">
         <v>670</v>
       </c>
       <c r="C702">
-        <v>8313</v>
+        <v>8246</v>
       </c>
       <c r="D702" t="s">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="E702">
         <v>456</v>
       </c>
       <c r="F702">
-        <v>117827</v>
+        <v>118417</v>
       </c>
       <c r="G702" t="s">
         <v>613</v>
       </c>
       <c r="H702" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="I702" t="s">
         <v>615</v>
       </c>
       <c r="J702" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.15">
@@ -18812,22 +18807,22 @@
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A766">
-        <v>1467</v>
+        <v>1500</v>
       </c>
       <c r="B766" t="s">
         <v>670</v>
       </c>
       <c r="C766">
-        <v>8219</v>
+        <v>8306</v>
       </c>
       <c r="D766" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="E766">
         <v>448</v>
       </c>
       <c r="F766">
-        <v>126830</v>
+        <v>126794</v>
       </c>
       <c r="G766" t="s">
         <v>613</v>
@@ -18864,22 +18859,22 @@
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>1500</v>
+        <v>1467</v>
       </c>
       <c r="B768" t="s">
         <v>670</v>
       </c>
       <c r="C768">
-        <v>8306</v>
+        <v>8219</v>
       </c>
       <c r="D768" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="E768">
         <v>448</v>
       </c>
       <c r="F768">
-        <v>126794</v>
+        <v>126830</v>
       </c>
       <c r="G768" t="s">
         <v>613</v>

--- a/江西大学投档线-文件转换_数据清洗/output_excel/默认筛选_二本.xlsx
+++ b/江西大学投档线-文件转换_数据清洗/output_excel/默认筛选_二本.xlsx
@@ -2620,6 +2620,16 @@
       <filters>
         <filter val="理工"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="lessThan" val="501"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A55:J875">
@@ -2928,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
-      <selection activeCell="O780" sqref="O780"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="M399" sqref="M399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2973,7 +2983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1361</v>
       </c>
@@ -2993,7 +3003,7 @@
         <v>33512</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>843</v>
       </c>
@@ -3013,7 +3023,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>668</v>
       </c>
@@ -3033,7 +3043,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>956</v>
       </c>
@@ -3053,7 +3063,7 @@
         <v>48467</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>991</v>
       </c>
@@ -3073,7 +3083,7 @@
         <v>49026</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>912</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>49371</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>675</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>50673</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>691</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>50441</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>676</v>
       </c>
@@ -3153,7 +3163,7 @@
         <v>51629</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1176</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>51431</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>999</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>51217</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>805</v>
       </c>
@@ -3213,7 +3223,7 @@
         <v>50945</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>814</v>
       </c>
@@ -3233,7 +3243,7 @@
         <v>53056</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>851</v>
       </c>
@@ -3253,7 +3263,7 @@
         <v>52987</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>952</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>52712</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>983</v>
       </c>
@@ -3293,7 +3303,7 @@
         <v>52639</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>803</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>53879</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1021</v>
       </c>
@@ -3333,7 +3343,7 @@
         <v>54865</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>911</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>54831</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>682</v>
       </c>
@@ -3373,7 +3383,7 @@
         <v>54645</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>769</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>54564</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>687</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>54491</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>686</v>
       </c>
@@ -3433,7 +3443,7 @@
         <v>54441</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1139</v>
       </c>
@@ -3453,7 +3463,7 @@
         <v>54427</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>942</v>
       </c>
@@ -3473,7 +3483,7 @@
         <v>54424</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>817</v>
       </c>
@@ -3493,7 +3503,7 @@
         <v>54344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1392</v>
       </c>
@@ -3513,7 +3523,7 @@
         <v>55811</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>944</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>55772</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1023</v>
       </c>
@@ -3553,7 +3563,7 @@
         <v>55738</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>822</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>55642</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>997</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>55241</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>889</v>
       </c>
@@ -3613,7 +3623,7 @@
         <v>55151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1154</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>55147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>882</v>
       </c>
@@ -3653,7 +3663,7 @@
         <v>55126</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1404</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>55021</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>811</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>56718</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>827</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>56622</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>824</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>56583</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1397</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>56570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1450</v>
       </c>
@@ -3773,7 +3783,7 @@
         <v>56550</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>848</v>
       </c>
@@ -3793,7 +3803,7 @@
         <v>56452</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1366</v>
       </c>
@@ -3813,7 +3823,7 @@
         <v>56444</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>809</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>56165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>938</v>
       </c>
@@ -3853,7 +3863,7 @@
         <v>56113</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>987</v>
       </c>
@@ -3873,7 +3883,7 @@
         <v>56093</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>754</v>
       </c>
@@ -3893,7 +3903,7 @@
         <v>56052</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>746</v>
       </c>
@@ -3913,7 +3923,7 @@
         <v>55970</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1319</v>
       </c>
@@ -3933,7 +3943,7 @@
         <v>57557</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>884</v>
       </c>
@@ -3953,7 +3963,7 @@
         <v>57503</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>810</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>57348</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1007</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>57345</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>694</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>57032</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>855</v>
       </c>
@@ -4033,7 +4043,7 @@
         <v>56950</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1471</v>
       </c>
@@ -4065,7 +4075,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>818</v>
       </c>
@@ -4085,7 +4095,7 @@
         <v>56728</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>946</v>
       </c>
@@ -4105,7 +4115,7 @@
         <v>58022</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>994</v>
       </c>
@@ -4125,7 +4135,7 @@
         <v>57936</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>955</v>
       </c>
@@ -4145,7 +4155,7 @@
         <v>57861</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>922</v>
       </c>
@@ -4165,7 +4175,7 @@
         <v>57819</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>677</v>
       </c>
@@ -4185,7 +4195,7 @@
         <v>57733</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>834</v>
       </c>
@@ -4205,7 +4215,7 @@
         <v>57716</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>714</v>
       </c>
@@ -4225,7 +4235,7 @@
         <v>59373</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1472</v>
       </c>
@@ -4257,7 +4267,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1396</v>
       </c>
@@ -4277,7 +4287,7 @@
         <v>59086</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>963</v>
       </c>
@@ -4297,7 +4307,7 @@
         <v>59008</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1357</v>
       </c>
@@ -4317,7 +4327,7 @@
         <v>58901</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1388</v>
       </c>
@@ -4337,7 +4347,7 @@
         <v>58809</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>749</v>
       </c>
@@ -4357,7 +4367,7 @@
         <v>58764</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>883</v>
       </c>
@@ -4377,7 +4387,7 @@
         <v>58736</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>928</v>
       </c>
@@ -4397,7 +4407,7 @@
         <v>58725</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>706</v>
       </c>
@@ -4417,7 +4427,7 @@
         <v>58692</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>688</v>
       </c>
@@ -4437,7 +4447,7 @@
         <v>58666</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1052</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>58648</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>933</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>58589</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1039</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>58554</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1169</v>
       </c>
@@ -4517,7 +4527,7 @@
         <v>58518</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1493</v>
       </c>
@@ -4549,7 +4559,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>846</v>
       </c>
@@ -4569,7 +4579,7 @@
         <v>60297</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>886</v>
       </c>
@@ -4589,7 +4599,7 @@
         <v>60234</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>881</v>
       </c>
@@ -4609,7 +4619,7 @@
         <v>60188</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>868</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>60077</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>750</v>
       </c>
@@ -4649,7 +4659,7 @@
         <v>59933</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>967</v>
       </c>
@@ -4669,7 +4679,7 @@
         <v>59818</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>764</v>
       </c>
@@ -4689,7 +4699,7 @@
         <v>59789</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>840</v>
       </c>
@@ -4709,7 +4719,7 @@
         <v>59643</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1470</v>
       </c>
@@ -4741,7 +4751,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1028</v>
       </c>
@@ -4761,7 +4771,7 @@
         <v>61231</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>984</v>
       </c>
@@ -4781,7 +4791,7 @@
         <v>61208</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>685</v>
       </c>
@@ -4801,7 +4811,7 @@
         <v>61116</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>837</v>
       </c>
@@ -4821,7 +4831,7 @@
         <v>61030</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1452</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>703</v>
       </c>
@@ -4873,7 +4883,7 @@
         <v>60997</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>950</v>
       </c>
@@ -4893,7 +4903,7 @@
         <v>60843</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1398</v>
       </c>
@@ -4913,7 +4923,7 @@
         <v>60764</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1451</v>
       </c>
@@ -4945,7 +4955,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>964</v>
       </c>
@@ -4965,7 +4975,7 @@
         <v>60699</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>825</v>
       </c>
@@ -4985,7 +4995,7 @@
         <v>60543</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>957</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>60532</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>924</v>
       </c>
@@ -5025,7 +5035,7 @@
         <v>60519</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1387</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>60515</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>921</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>60423</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>812</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>60412</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>755</v>
       </c>
@@ -5105,7 +5115,7 @@
         <v>62087</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1058</v>
       </c>
@@ -5125,7 +5135,7 @@
         <v>61977</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>941</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>61831</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>679</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>61788</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>831</v>
       </c>
@@ -5185,7 +5195,7 @@
         <v>61749</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>871</v>
       </c>
@@ -5205,7 +5215,7 @@
         <v>61634</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>878</v>
       </c>
@@ -5225,7 +5235,7 @@
         <v>61624</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>932</v>
       </c>
@@ -5245,7 +5255,7 @@
         <v>61586</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>986</v>
       </c>
@@ -5265,7 +5275,7 @@
         <v>61569</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>923</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>61522</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1322</v>
       </c>
@@ -5305,7 +5315,7 @@
         <v>61328</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>826</v>
       </c>
@@ -5325,7 +5335,7 @@
         <v>63095</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>989</v>
       </c>
@@ -5345,7 +5355,7 @@
         <v>63027</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>874</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>63023</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>1002</v>
       </c>
@@ -5385,7 +5395,7 @@
         <v>62931</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>1032</v>
       </c>
@@ -5405,7 +5415,7 @@
         <v>62722</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>850</v>
       </c>
@@ -5425,7 +5435,7 @@
         <v>62700</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>913</v>
       </c>
@@ -5445,7 +5455,7 @@
         <v>62669</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>937</v>
       </c>
@@ -5465,7 +5475,7 @@
         <v>62664</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>929</v>
       </c>
@@ -5485,7 +5495,7 @@
         <v>62658</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>852</v>
       </c>
@@ -5505,7 +5515,7 @@
         <v>62612</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>847</v>
       </c>
@@ -5525,7 +5535,7 @@
         <v>62530</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1275</v>
       </c>
@@ -5545,7 +5555,7 @@
         <v>62460</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1161</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>62451</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>1037</v>
       </c>
@@ -5585,7 +5595,7 @@
         <v>62441</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>752</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>62251</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>1469</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>1353</v>
       </c>
@@ -5657,7 +5667,7 @@
         <v>63896</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1026</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>63865</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>872</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>63489</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>940</v>
       </c>
@@ -5717,7 +5727,7 @@
         <v>63457</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>865</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>63343</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>841</v>
       </c>
@@ -5757,7 +5767,7 @@
         <v>63281</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>823</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>63135</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1025</v>
       </c>
@@ -5797,7 +5807,7 @@
         <v>64792</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>733</v>
       </c>
@@ -5817,7 +5827,7 @@
         <v>64780</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1008</v>
       </c>
@@ -5837,7 +5847,7 @@
         <v>64643</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>870</v>
       </c>
@@ -5857,7 +5867,7 @@
         <v>64597</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>954</v>
       </c>
@@ -5877,7 +5887,7 @@
         <v>64440</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>947</v>
       </c>
@@ -5897,7 +5907,7 @@
         <v>64435</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1423</v>
       </c>
@@ -5917,7 +5927,7 @@
         <v>64322</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>701</v>
       </c>
@@ -5937,7 +5947,7 @@
         <v>64316</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1040</v>
       </c>
@@ -5957,7 +5967,7 @@
         <v>64107</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>1454</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>936</v>
       </c>
@@ -6009,7 +6019,7 @@
         <v>65364</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>699</v>
       </c>
@@ -6029,7 +6039,7 @@
         <v>65324</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>1453</v>
       </c>
@@ -6061,7 +6071,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>996</v>
       </c>
@@ -6081,7 +6091,7 @@
         <v>65093</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>747</v>
       </c>
@@ -6101,7 +6111,7 @@
         <v>64987</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>695</v>
       </c>
@@ -6121,7 +6131,7 @@
         <v>66806</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>1029</v>
       </c>
@@ -6141,7 +6151,7 @@
         <v>66400</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>930</v>
       </c>
@@ -6161,7 +6171,7 @@
         <v>66349</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>710</v>
       </c>
@@ -6181,7 +6191,7 @@
         <v>66284</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>751</v>
       </c>
@@ -6201,7 +6211,7 @@
         <v>66265</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>1364</v>
       </c>
@@ -6221,7 +6231,7 @@
         <v>66130</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>1009</v>
       </c>
@@ -6241,7 +6251,7 @@
         <v>66068</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>838</v>
       </c>
@@ -6261,7 +6271,7 @@
         <v>66046</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>720</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>66006</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>864</v>
       </c>
@@ -6301,7 +6311,7 @@
         <v>67638</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>993</v>
       </c>
@@ -6321,7 +6331,7 @@
         <v>67629</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>820</v>
       </c>
@@ -6341,7 +6351,7 @@
         <v>67588</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>985</v>
       </c>
@@ -6361,7 +6371,7 @@
         <v>67545</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>1167</v>
       </c>
@@ -6381,7 +6391,7 @@
         <v>67480</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>777</v>
       </c>
@@ -6401,7 +6411,7 @@
         <v>67399</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>1492</v>
       </c>
@@ -6433,7 +6443,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>990</v>
       </c>
@@ -6453,7 +6463,7 @@
         <v>67294</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>1321</v>
       </c>
@@ -6473,7 +6483,7 @@
         <v>67126</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>968</v>
       </c>
@@ -6493,7 +6503,7 @@
         <v>67019</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>859</v>
       </c>
@@ -6513,7 +6523,7 @@
         <v>67008</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>916</v>
       </c>
@@ -6533,7 +6543,7 @@
         <v>66865</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>1284</v>
       </c>
@@ -6553,7 +6563,7 @@
         <v>68665</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>971</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>68656</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>1057</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>68650</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>877</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>68615</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>885</v>
       </c>
@@ -6633,7 +6643,7 @@
         <v>68479</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>888</v>
       </c>
@@ -6653,7 +6663,7 @@
         <v>68452</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>760</v>
       </c>
@@ -6673,7 +6683,7 @@
         <v>68189</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>904</v>
       </c>
@@ -6693,7 +6703,7 @@
         <v>68035</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>774</v>
       </c>
@@ -6713,7 +6723,7 @@
         <v>67870</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>718</v>
       </c>
@@ -6733,7 +6743,7 @@
         <v>67847</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>758</v>
       </c>
@@ -6753,7 +6763,7 @@
         <v>67828</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>1420</v>
       </c>
@@ -6773,7 +6783,7 @@
         <v>69433</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1323</v>
       </c>
@@ -6793,7 +6803,7 @@
         <v>69412</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>951</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>69316</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>918</v>
       </c>
@@ -6833,7 +6843,7 @@
         <v>69242</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1001</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>69172</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>879</v>
       </c>
@@ -6873,7 +6883,7 @@
         <v>70627</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>943</v>
       </c>
@@ -6893,7 +6903,7 @@
         <v>70570</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>708</v>
       </c>
@@ -6913,7 +6923,7 @@
         <v>70532</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>917</v>
       </c>
@@ -6933,7 +6943,7 @@
         <v>70294</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>690</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>70166</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>861</v>
       </c>
@@ -6973,7 +6983,7 @@
         <v>70138</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>844</v>
       </c>
@@ -6993,7 +7003,7 @@
         <v>70078</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>935</v>
       </c>
@@ -7013,7 +7023,7 @@
         <v>69838</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>919</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>1184</v>
       </c>
@@ -7085,7 +7095,7 @@
         <v>71547</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>1339</v>
       </c>
@@ -7105,7 +7115,7 @@
         <v>71506</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>1369</v>
       </c>
@@ -7125,7 +7135,7 @@
         <v>71449</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>880</v>
       </c>
@@ -7145,7 +7155,7 @@
         <v>71433</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>958</v>
       </c>
@@ -7165,7 +7175,7 @@
         <v>71226</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>962</v>
       </c>
@@ -7185,7 +7195,7 @@
         <v>71131</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>1354</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>70852</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>807</v>
       </c>
@@ -7225,7 +7235,7 @@
         <v>70797</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>816</v>
       </c>
@@ -7245,7 +7255,7 @@
         <v>70753</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>700</v>
       </c>
@@ -7265,7 +7275,7 @@
         <v>72496</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>914</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>72408</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>866</v>
       </c>
@@ -7305,7 +7315,7 @@
         <v>72368</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>1248</v>
       </c>
@@ -7325,7 +7335,7 @@
         <v>72261</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>869</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>71926</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>853</v>
       </c>
@@ -7365,7 +7375,7 @@
         <v>71760</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>1320</v>
       </c>
@@ -7385,7 +7395,7 @@
         <v>73587</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>1367</v>
       </c>
@@ -7437,7 +7447,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>763</v>
       </c>
@@ -7457,7 +7467,7 @@
         <v>73413</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>670</v>
       </c>
@@ -7477,7 +7487,7 @@
         <v>73269</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>1406</v>
       </c>
@@ -7497,7 +7507,7 @@
         <v>73229</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>1003</v>
       </c>
@@ -7517,7 +7527,7 @@
         <v>73088</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>948</v>
       </c>
@@ -7537,7 +7547,7 @@
         <v>73079</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>1409</v>
       </c>
@@ -7557,7 +7567,7 @@
         <v>72988</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>828</v>
       </c>
@@ -7577,7 +7587,7 @@
         <v>72927</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>773</v>
       </c>
@@ -7629,7 +7639,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>753</v>
       </c>
@@ -7649,7 +7659,7 @@
         <v>72755</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>712</v>
       </c>
@@ -7669,7 +7679,7 @@
         <v>74518</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>1338</v>
       </c>
@@ -7689,7 +7699,7 @@
         <v>74476</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>1258</v>
       </c>
@@ -7741,7 +7751,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>863</v>
       </c>
@@ -7761,7 +7771,7 @@
         <v>74275</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>1019</v>
       </c>
@@ -7781,7 +7791,7 @@
         <v>74267</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>808</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>73703</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>1395</v>
       </c>
@@ -7821,7 +7831,7 @@
         <v>73675</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>1400</v>
       </c>
@@ -7841,7 +7851,7 @@
         <v>73605</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>876</v>
       </c>
@@ -7861,7 +7871,7 @@
         <v>75488</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>1336</v>
       </c>
@@ -7881,7 +7891,7 @@
         <v>75455</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>806</v>
       </c>
@@ -7901,7 +7911,7 @@
         <v>75206</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>862</v>
       </c>
@@ -7921,7 +7931,7 @@
         <v>75079</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>830</v>
       </c>
@@ -7941,7 +7951,7 @@
         <v>74992</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>896</v>
       </c>
@@ -7961,7 +7971,7 @@
         <v>74912</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>1016</v>
       </c>
@@ -7981,7 +7991,7 @@
         <v>74830</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>819</v>
       </c>
@@ -8001,7 +8011,7 @@
         <v>74826</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>892</v>
       </c>
@@ -8021,7 +8031,7 @@
         <v>74707</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>1024</v>
       </c>
@@ -8041,7 +8051,7 @@
         <v>76471</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>931</v>
       </c>
@@ -8061,7 +8071,7 @@
         <v>76357</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>707</v>
       </c>
@@ -8081,7 +8091,7 @@
         <v>76231</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>683</v>
       </c>
@@ -8101,7 +8111,7 @@
         <v>76120</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>1342</v>
       </c>
@@ -8153,7 +8163,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>761</v>
       </c>
@@ -8173,7 +8183,7 @@
         <v>75697</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>906</v>
       </c>
@@ -8193,7 +8203,7 @@
         <v>77149</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>953</v>
       </c>
@@ -8213,7 +8223,7 @@
         <v>77143</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>926</v>
       </c>
@@ -8233,7 +8243,7 @@
         <v>77111</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>961</v>
       </c>
@@ -8253,7 +8263,7 @@
         <v>77026</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>1358</v>
       </c>
@@ -8273,7 +8283,7 @@
         <v>76960</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>1044</v>
       </c>
@@ -8293,7 +8303,7 @@
         <v>76704</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>856</v>
       </c>
@@ -8313,7 +8323,7 @@
         <v>76697</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>678</v>
       </c>
@@ -8333,7 +8343,7 @@
         <v>78540</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>1391</v>
       </c>
@@ -8353,7 +8363,7 @@
         <v>78486</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>927</v>
       </c>
@@ -8373,7 +8383,7 @@
         <v>78438</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>981</v>
       </c>
@@ -8393,7 +8403,7 @@
         <v>78382</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>849</v>
       </c>
@@ -8413,7 +8423,7 @@
         <v>78353</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>801</v>
       </c>
@@ -8433,7 +8443,7 @@
         <v>78347</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>1508</v>
       </c>
@@ -8517,7 +8527,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>895</v>
       </c>
@@ -8601,7 +8611,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>1038</v>
       </c>
@@ -8621,7 +8631,7 @@
         <v>79655</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>945</v>
       </c>
@@ -8641,7 +8651,7 @@
         <v>79649</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>692</v>
       </c>
@@ -8661,7 +8671,7 @@
         <v>79596</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>979</v>
       </c>
@@ -8681,7 +8691,7 @@
         <v>79567</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>770</v>
       </c>
@@ -8701,7 +8711,7 @@
         <v>79474</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>1055</v>
       </c>
@@ -8721,7 +8731,7 @@
         <v>79408</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>669</v>
       </c>
@@ -8741,7 +8751,7 @@
         <v>79342</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>768</v>
       </c>
@@ -8761,7 +8771,7 @@
         <v>79276</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>732</v>
       </c>
@@ -8781,7 +8791,7 @@
         <v>79065</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>673</v>
       </c>
@@ -8801,7 +8811,7 @@
         <v>78945</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>693</v>
       </c>
@@ -8821,7 +8831,7 @@
         <v>78852</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>867</v>
       </c>
@@ -8841,7 +8851,7 @@
         <v>78835</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>934</v>
       </c>
@@ -8861,7 +8871,7 @@
         <v>78783</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>748</v>
       </c>
@@ -8881,7 +8891,7 @@
         <v>78697</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>787</v>
       </c>
@@ -8901,7 +8911,7 @@
         <v>78686</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>970</v>
       </c>
@@ -8921,7 +8931,7 @@
         <v>78663</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>721</v>
       </c>
@@ -8941,7 +8951,7 @@
         <v>80657</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>1014</v>
       </c>
@@ -8961,7 +8971,7 @@
         <v>80616</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>965</v>
       </c>
@@ -8981,7 +8991,7 @@
         <v>80484</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>988</v>
       </c>
@@ -9001,7 +9011,7 @@
         <v>80468</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>1010</v>
       </c>
@@ -9021,7 +9031,7 @@
         <v>80430</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>1197</v>
       </c>
@@ -9041,7 +9051,7 @@
         <v>80424</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>966</v>
       </c>
@@ -9061,7 +9071,7 @@
         <v>80364</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>698</v>
       </c>
@@ -9081,7 +9091,7 @@
         <v>80311</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>1011</v>
       </c>
@@ -9101,7 +9111,7 @@
         <v>80158</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>792</v>
       </c>
@@ -9153,7 +9163,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>1381</v>
       </c>
@@ -9173,7 +9183,7 @@
         <v>79897</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>1449</v>
       </c>
@@ -9193,7 +9203,7 @@
         <v>81614</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>905</v>
       </c>
@@ -9213,7 +9223,7 @@
         <v>81586</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>1329</v>
       </c>
@@ -9265,7 +9275,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>775</v>
       </c>
@@ -9317,7 +9327,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>704</v>
       </c>
@@ -9337,7 +9347,7 @@
         <v>80997</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>780</v>
       </c>
@@ -9357,7 +9367,7 @@
         <v>80994</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>1362</v>
       </c>
@@ -9377,7 +9387,7 @@
         <v>80934</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>796</v>
       </c>
@@ -9397,7 +9407,7 @@
         <v>80857</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>1034</v>
       </c>
@@ -9417,7 +9427,7 @@
         <v>82580</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>897</v>
       </c>
@@ -9437,7 +9447,7 @@
         <v>82368</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>949</v>
       </c>
@@ -9457,7 +9467,7 @@
         <v>82343</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>1377</v>
       </c>
@@ -9477,7 +9487,7 @@
         <v>82258</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>974</v>
       </c>
@@ -9497,7 +9507,7 @@
         <v>82253</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>1337</v>
       </c>
@@ -9517,7 +9527,7 @@
         <v>82170</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>893</v>
       </c>
@@ -9537,7 +9547,7 @@
         <v>82095</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>1375</v>
       </c>
@@ -9557,7 +9567,7 @@
         <v>82064</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>719</v>
       </c>
@@ -9577,7 +9587,7 @@
         <v>82029</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>920</v>
       </c>
@@ -9597,7 +9607,7 @@
         <v>81827</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>783</v>
       </c>
@@ -9617,7 +9627,7 @@
         <v>83831</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>715</v>
       </c>
@@ -9637,7 +9647,7 @@
         <v>83714</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>857</v>
       </c>
@@ -9657,7 +9667,7 @@
         <v>83635</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>1065</v>
       </c>
@@ -9677,7 +9687,7 @@
         <v>83567</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>717</v>
       </c>
@@ -9697,7 +9707,7 @@
         <v>83546</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>778</v>
       </c>
@@ -9717,7 +9727,7 @@
         <v>83438</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>899</v>
       </c>
@@ -9737,7 +9747,7 @@
         <v>83207</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>915</v>
       </c>
@@ -9757,7 +9767,7 @@
         <v>83139</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>1399</v>
       </c>
@@ -9777,7 +9787,7 @@
         <v>83076</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>836</v>
       </c>
@@ -9797,7 +9807,7 @@
         <v>82975</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>832</v>
       </c>
@@ -9817,7 +9827,7 @@
         <v>82958</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>1194</v>
       </c>
@@ -9837,7 +9847,7 @@
         <v>85003</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>711</v>
       </c>
@@ -9857,7 +9867,7 @@
         <v>84942</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>1352</v>
       </c>
@@ -9877,7 +9887,7 @@
         <v>84663</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>680</v>
       </c>
@@ -9897,7 +9907,7 @@
         <v>84565</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>716</v>
       </c>
@@ -9917,7 +9927,7 @@
         <v>84303</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>1053</v>
       </c>
@@ -9937,7 +9947,7 @@
         <v>84181</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>1294</v>
       </c>
@@ -9957,7 +9967,7 @@
         <v>84087</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>1405</v>
       </c>
@@ -9977,7 +9987,7 @@
         <v>84076</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>771</v>
       </c>
@@ -9997,7 +10007,7 @@
         <v>84009</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>1277</v>
       </c>
@@ -10017,7 +10027,7 @@
         <v>86015</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>1413</v>
       </c>
@@ -10037,7 +10047,7 @@
         <v>85858</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>835</v>
       </c>
@@ -10057,7 +10067,7 @@
         <v>85808</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>939</v>
       </c>
@@ -10077,7 +10087,7 @@
         <v>85801</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>1158</v>
       </c>
@@ -10097,7 +10107,7 @@
         <v>85037</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>1345</v>
       </c>
@@ -10117,7 +10127,7 @@
         <v>87209</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>672</v>
       </c>
@@ -10137,7 +10147,7 @@
         <v>86945</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>1393</v>
       </c>
@@ -10157,7 +10167,7 @@
         <v>86849</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>731</v>
       </c>
@@ -10177,7 +10187,7 @@
         <v>86812</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>982</v>
       </c>
@@ -10197,7 +10207,7 @@
         <v>86808</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>776</v>
       </c>
@@ -10217,7 +10227,7 @@
         <v>86577</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>791</v>
       </c>
@@ -10237,7 +10247,7 @@
         <v>86268</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>1351</v>
       </c>
@@ -10257,7 +10267,7 @@
         <v>86221</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>734</v>
       </c>
@@ -10277,7 +10287,7 @@
         <v>88228</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>1064</v>
       </c>
@@ -10297,7 +10307,7 @@
         <v>88194</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>842</v>
       </c>
@@ -10317,7 +10327,7 @@
         <v>88102</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>995</v>
       </c>
@@ -10337,7 +10347,7 @@
         <v>88011</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>1291</v>
       </c>
@@ -10357,7 +10367,7 @@
         <v>87920</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>860</v>
       </c>
@@ -10377,7 +10387,7 @@
         <v>87808</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>1049</v>
       </c>
@@ -10429,7 +10439,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>898</v>
       </c>
@@ -10449,7 +10459,7 @@
         <v>87386</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>891</v>
       </c>
@@ -10469,7 +10479,7 @@
         <v>87333</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>1394</v>
       </c>
@@ -10489,7 +10499,7 @@
         <v>89250</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>1403</v>
       </c>
@@ -10509,7 +10519,7 @@
         <v>88610</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>887</v>
       </c>
@@ -10529,7 +10539,7 @@
         <v>88545</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>1372</v>
       </c>
@@ -10549,7 +10559,7 @@
         <v>88525</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>1326</v>
       </c>
@@ -10569,7 +10579,7 @@
         <v>88498</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>724</v>
       </c>
@@ -10589,7 +10599,7 @@
         <v>88394</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>1081</v>
       </c>
@@ -10609,7 +10619,7 @@
         <v>88276</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>1041</v>
       </c>
@@ -10629,7 +10639,7 @@
         <v>90468</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>1185</v>
       </c>
@@ -10649,7 +10659,7 @@
         <v>90447</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>735</v>
       </c>
@@ -10669,7 +10679,7 @@
         <v>90444</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>728</v>
       </c>
@@ -10689,7 +10699,7 @@
         <v>90103</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>1004</v>
       </c>
@@ -10709,7 +10719,7 @@
         <v>89989</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>998</v>
       </c>
@@ -10729,7 +10739,7 @@
         <v>89905</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>1063</v>
       </c>
@@ -10749,7 +10759,7 @@
         <v>89529</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>1205</v>
       </c>
@@ -10769,7 +10779,7 @@
         <v>89520</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>890</v>
       </c>
@@ -10789,7 +10799,7 @@
         <v>89481</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>1402</v>
       </c>
@@ -10809,7 +10819,7 @@
         <v>89405</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>1328</v>
       </c>
@@ -10861,7 +10871,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>788</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>91385</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>1331</v>
       </c>
@@ -10901,7 +10911,7 @@
         <v>90918</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>740</v>
       </c>
@@ -10921,7 +10931,7 @@
         <v>90844</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>854</v>
       </c>
@@ -10941,7 +10951,7 @@
         <v>90599</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>821</v>
       </c>
@@ -10961,7 +10971,7 @@
         <v>90542</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>1475</v>
       </c>
@@ -10981,7 +10991,7 @@
         <v>92556</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>1035</v>
       </c>
@@ -11001,7 +11011,7 @@
         <v>92345</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>1050</v>
       </c>
@@ -11021,7 +11031,7 @@
         <v>92337</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>1380</v>
       </c>
@@ -11041,7 +11051,7 @@
         <v>92281</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>1043</v>
       </c>
@@ -11093,7 +11103,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>1042</v>
       </c>
@@ -11113,7 +11123,7 @@
         <v>93746</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>1000</v>
       </c>
@@ -11133,7 +11143,7 @@
         <v>93229</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>743</v>
       </c>
@@ -11153,7 +11163,7 @@
         <v>93068</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>1137</v>
       </c>
@@ -11173,7 +11183,7 @@
         <v>92835</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>1150</v>
       </c>
@@ -11193,7 +11203,7 @@
         <v>92731</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>1459</v>
       </c>
@@ -11245,7 +11255,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>1390</v>
       </c>
@@ -11265,7 +11275,7 @@
         <v>94781</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>873</v>
       </c>
@@ -11285,7 +11295,7 @@
         <v>94584</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>697</v>
       </c>
@@ -11305,7 +11315,7 @@
         <v>94178</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>1061</v>
       </c>
@@ -11325,7 +11335,7 @@
         <v>93974</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>900</v>
       </c>
@@ -11377,7 +11387,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>671</v>
       </c>
@@ -11397,7 +11407,7 @@
         <v>96032</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>1094</v>
       </c>
@@ -11417,7 +11427,7 @@
         <v>95983</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>1135</v>
       </c>
@@ -11437,7 +11447,7 @@
         <v>95945</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>1257</v>
       </c>
@@ -11457,7 +11467,7 @@
         <v>95888</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>1244</v>
       </c>
@@ -11477,7 +11487,7 @@
         <v>95799</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>1136</v>
       </c>
@@ -11497,7 +11507,7 @@
         <v>95795</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>1401</v>
       </c>
@@ -11517,7 +11527,7 @@
         <v>95629</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>786</v>
       </c>
@@ -11537,7 +11547,7 @@
         <v>95557</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>1006</v>
       </c>
@@ -11589,7 +11599,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>1299</v>
       </c>
@@ -11609,7 +11619,7 @@
         <v>94967</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>790</v>
       </c>
@@ -11629,7 +11639,7 @@
         <v>96960</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>1341</v>
       </c>
@@ -11649,7 +11659,7 @@
         <v>96896</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>1419</v>
       </c>
@@ -11701,7 +11711,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>727</v>
       </c>
@@ -11721,7 +11731,7 @@
         <v>96473</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>1347</v>
       </c>
@@ -11741,7 +11751,7 @@
         <v>96401</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>1223</v>
       </c>
@@ -11761,7 +11771,7 @@
         <v>96109</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>705</v>
       </c>
@@ -11781,7 +11791,7 @@
         <v>96061</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>1384</v>
       </c>
@@ -11801,7 +11811,7 @@
         <v>98243</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>737</v>
       </c>
@@ -11821,7 +11831,7 @@
         <v>98218</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>736</v>
       </c>
@@ -11841,7 +11851,7 @@
         <v>98160</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>709</v>
       </c>
@@ -11861,7 +11871,7 @@
         <v>98144</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>839</v>
       </c>
@@ -11881,7 +11891,7 @@
         <v>98141</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>813</v>
       </c>
@@ -11901,7 +11911,7 @@
         <v>98060</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>901</v>
       </c>
@@ -11921,7 +11931,7 @@
         <v>97996</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>875</v>
       </c>
@@ -11941,7 +11951,7 @@
         <v>97702</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>696</v>
       </c>
@@ -11993,7 +12003,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>794</v>
       </c>
@@ -12013,7 +12023,7 @@
         <v>97425</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>1335</v>
       </c>
@@ -12065,7 +12075,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>781</v>
       </c>
@@ -12085,7 +12095,7 @@
         <v>97361</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>894</v>
       </c>
@@ -12105,7 +12115,7 @@
         <v>97205</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>1047</v>
       </c>
@@ -12125,7 +12135,7 @@
         <v>99418</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>1072</v>
       </c>
@@ -12145,7 +12155,7 @@
         <v>99413</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>1318</v>
       </c>
@@ -12165,7 +12175,7 @@
         <v>99400</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>713</v>
       </c>
@@ -12185,7 +12195,7 @@
         <v>99377</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>969</v>
       </c>
@@ -12205,7 +12215,7 @@
         <v>99367</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>975</v>
       </c>
@@ -12225,7 +12235,7 @@
         <v>99362</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>1030</v>
       </c>
@@ -12245,7 +12255,7 @@
         <v>99361</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>1013</v>
       </c>
@@ -12297,7 +12307,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>1239</v>
       </c>
@@ -12317,7 +12327,7 @@
         <v>99292</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450">
         <v>1438</v>
       </c>
@@ -12369,7 +12379,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>1240</v>
       </c>
@@ -12389,7 +12399,7 @@
         <v>99239</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>1232</v>
       </c>
@@ -12409,7 +12419,7 @@
         <v>99201</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>1152</v>
       </c>
@@ -12429,7 +12439,7 @@
         <v>99199</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>1048</v>
       </c>
@@ -12449,7 +12459,7 @@
         <v>99182</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>1317</v>
       </c>
@@ -12469,7 +12479,7 @@
         <v>99178</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>972</v>
       </c>
@@ -12489,7 +12499,7 @@
         <v>98967</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>1233</v>
       </c>
@@ -12509,7 +12519,7 @@
         <v>98902</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>833</v>
       </c>
@@ -12529,7 +12539,7 @@
         <v>98812</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>723</v>
       </c>
@@ -12549,7 +12559,7 @@
         <v>98757</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461">
         <v>976</v>
       </c>
@@ -12569,7 +12579,7 @@
         <v>98635</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462">
         <v>1031</v>
       </c>
@@ -12589,7 +12599,7 @@
         <v>98534</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463">
         <v>1143</v>
       </c>
@@ -12609,7 +12619,7 @@
         <v>98521</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>684</v>
       </c>
@@ -12629,7 +12639,7 @@
         <v>98519</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>977</v>
       </c>
@@ -12649,7 +12659,7 @@
         <v>100544</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>1020</v>
       </c>
@@ -12669,7 +12679,7 @@
         <v>100530</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>1333</v>
       </c>
@@ -12689,7 +12699,7 @@
         <v>100519</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>1036</v>
       </c>
@@ -12709,7 +12719,7 @@
         <v>100449</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>1060</v>
       </c>
@@ -12729,7 +12739,7 @@
         <v>100371</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>772</v>
       </c>
@@ -12749,7 +12759,7 @@
         <v>100318</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>793</v>
       </c>
@@ -12769,7 +12779,7 @@
         <v>100311</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>1334</v>
       </c>
@@ -12789,7 +12799,7 @@
         <v>100296</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>689</v>
       </c>
@@ -12809,7 +12819,7 @@
         <v>100214</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>1141</v>
       </c>
@@ -12829,7 +12839,7 @@
         <v>100208</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>797</v>
       </c>
@@ -12849,7 +12859,7 @@
         <v>100186</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>681</v>
       </c>
@@ -12869,7 +12879,7 @@
         <v>100183</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>730</v>
       </c>
@@ -12889,7 +12899,7 @@
         <v>100158</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>1228</v>
       </c>
@@ -12909,7 +12919,7 @@
         <v>100045</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>1045</v>
       </c>
@@ -12929,7 +12939,7 @@
         <v>100027</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>759</v>
       </c>
@@ -12949,7 +12959,7 @@
         <v>99963</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>1059</v>
       </c>
@@ -12969,7 +12979,7 @@
         <v>99930</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>1033</v>
       </c>
@@ -12989,7 +12999,7 @@
         <v>99924</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>726</v>
       </c>
@@ -13009,7 +13019,7 @@
         <v>99906</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>1012</v>
       </c>
@@ -13029,7 +13039,7 @@
         <v>99896</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>973</v>
       </c>
@@ -13049,7 +13059,7 @@
         <v>99823</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>702</v>
       </c>
@@ -13069,7 +13079,7 @@
         <v>99821</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>1046</v>
       </c>
@@ -13089,7 +13099,7 @@
         <v>99781</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>1272</v>
       </c>
@@ -13109,7 +13119,7 @@
         <v>99762</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>785</v>
       </c>
@@ -13129,7 +13139,7 @@
         <v>99734</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>1385</v>
       </c>
@@ -13149,7 +13159,7 @@
         <v>99729</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>1015</v>
       </c>
@@ -13169,7 +13179,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>722</v>
       </c>
@@ -13189,7 +13199,7 @@
         <v>99705</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>725</v>
       </c>
@@ -13209,7 +13219,7 @@
         <v>99674</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>902</v>
       </c>
@@ -13229,7 +13239,7 @@
         <v>99627</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>1410</v>
       </c>
@@ -13249,7 +13259,7 @@
         <v>99586</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>1285</v>
       </c>
@@ -13269,7 +13279,7 @@
         <v>101669</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>1355</v>
       </c>
@@ -13289,7 +13299,7 @@
         <v>101655</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>1246</v>
       </c>
@@ -13309,7 +13319,7 @@
         <v>101634</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>789</v>
       </c>
@@ -13329,7 +13339,7 @@
         <v>101625</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>1234</v>
       </c>
@@ -13349,7 +13359,7 @@
         <v>101602</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>798</v>
       </c>
@@ -13369,7 +13379,7 @@
         <v>101429</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>1073</v>
       </c>
@@ -13389,7 +13399,7 @@
         <v>101327</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>1430</v>
       </c>
@@ -13409,7 +13419,7 @@
         <v>101293</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>1315</v>
       </c>
@@ -13429,7 +13439,7 @@
         <v>101273</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>1186</v>
       </c>
@@ -13449,7 +13459,7 @@
         <v>101228</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>1166</v>
       </c>
@@ -13469,7 +13479,7 @@
         <v>101224</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>980</v>
       </c>
@@ -13489,7 +13499,7 @@
         <v>101197</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>1386</v>
       </c>
@@ -13509,7 +13519,7 @@
         <v>101139</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>1054</v>
       </c>
@@ -13561,7 +13571,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>1149</v>
       </c>
@@ -13581,7 +13591,7 @@
         <v>100981</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>1251</v>
       </c>
@@ -13601,7 +13611,7 @@
         <v>100845</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>1382</v>
       </c>
@@ -13621,7 +13631,7 @@
         <v>100830</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>1340</v>
       </c>
@@ -13641,7 +13651,7 @@
         <v>100728</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>1235</v>
       </c>
@@ -13661,7 +13671,7 @@
         <v>100695</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>757</v>
       </c>
@@ -13681,7 +13691,7 @@
         <v>100686</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>1056</v>
       </c>
@@ -13701,7 +13711,7 @@
         <v>100656</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>1373</v>
       </c>
@@ -13721,7 +13731,7 @@
         <v>100565</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>1245</v>
       </c>
@@ -13741,7 +13751,7 @@
         <v>102789</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>729</v>
       </c>
@@ -13761,7 +13771,7 @@
         <v>102709</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>910</v>
       </c>
@@ -13781,7 +13791,7 @@
         <v>102690</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>1067</v>
       </c>
@@ -13801,7 +13811,7 @@
         <v>102578</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>1280</v>
       </c>
@@ -13821,7 +13831,7 @@
         <v>102480</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>799</v>
       </c>
@@ -13841,7 +13851,7 @@
         <v>102429</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>1018</v>
       </c>
@@ -13861,7 +13871,7 @@
         <v>102420</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>782</v>
       </c>
@@ -13881,7 +13891,7 @@
         <v>102352</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>1383</v>
       </c>
@@ -13901,7 +13911,7 @@
         <v>102278</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>1376</v>
       </c>
@@ -13921,7 +13931,7 @@
         <v>102110</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>756</v>
       </c>
@@ -13941,7 +13951,7 @@
         <v>102056</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>1062</v>
       </c>
@@ -13961,7 +13971,7 @@
         <v>101956</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>795</v>
       </c>
@@ -13981,7 +13991,7 @@
         <v>103834</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>1314</v>
       </c>
@@ -14001,7 +14011,7 @@
         <v>103783</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>745</v>
       </c>
@@ -14021,7 +14031,7 @@
         <v>103703</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>1075</v>
       </c>
@@ -14041,7 +14051,7 @@
         <v>103657</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>1069</v>
       </c>
@@ -14061,7 +14071,7 @@
         <v>103561</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>1282</v>
       </c>
@@ -14081,7 +14091,7 @@
         <v>103471</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>1068</v>
       </c>
@@ -14101,7 +14111,7 @@
         <v>103458</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>738</v>
       </c>
@@ -14121,7 +14131,7 @@
         <v>103401</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>1140</v>
       </c>
@@ -14141,7 +14151,7 @@
         <v>103116</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>1071</v>
       </c>
@@ -14161,7 +14171,7 @@
         <v>103065</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541">
         <v>1153</v>
       </c>
@@ -14181,7 +14191,7 @@
         <v>103027</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>1350</v>
       </c>
@@ -14201,7 +14211,7 @@
         <v>102961</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>1070</v>
       </c>
@@ -14221,7 +14231,7 @@
         <v>102912</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>1144</v>
       </c>
@@ -14241,7 +14251,7 @@
         <v>102907</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>1268</v>
       </c>
@@ -14261,7 +14271,7 @@
         <v>104912</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>1206</v>
       </c>
@@ -14281,7 +14291,7 @@
         <v>104837</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>1346</v>
       </c>
@@ -14301,7 +14311,7 @@
         <v>104752</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>742</v>
       </c>
@@ -14321,7 +14331,7 @@
         <v>104720</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>1090</v>
       </c>
@@ -14341,7 +14351,7 @@
         <v>104658</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>1237</v>
       </c>
@@ -14361,7 +14371,7 @@
         <v>104638</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>1227</v>
       </c>
@@ -14381,7 +14391,7 @@
         <v>104620</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>1079</v>
       </c>
@@ -14401,7 +14411,7 @@
         <v>104580</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>1155</v>
       </c>
@@ -14421,7 +14431,7 @@
         <v>104522</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>1281</v>
       </c>
@@ -14441,7 +14451,7 @@
         <v>104460</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>1200</v>
       </c>
@@ -14461,7 +14471,7 @@
         <v>104391</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>1327</v>
       </c>
@@ -14481,7 +14491,7 @@
         <v>104381</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557">
         <v>1051</v>
       </c>
@@ -14501,7 +14511,7 @@
         <v>104338</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>1145</v>
       </c>
@@ -14521,7 +14531,7 @@
         <v>104336</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>741</v>
       </c>
@@ -14541,7 +14551,7 @@
         <v>104256</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>1182</v>
       </c>
@@ -14561,7 +14571,7 @@
         <v>104180</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>1076</v>
       </c>
@@ -14581,7 +14591,7 @@
         <v>104126</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>1089</v>
       </c>
@@ -14601,7 +14611,7 @@
         <v>104106</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>1216</v>
       </c>
@@ -14621,7 +14631,7 @@
         <v>104074</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>1151</v>
       </c>
@@ -14641,7 +14651,7 @@
         <v>104068</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>925</v>
       </c>
@@ -14661,7 +14671,7 @@
         <v>104018</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>739</v>
       </c>
@@ -14681,7 +14691,7 @@
         <v>104002</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>1147</v>
       </c>
@@ -14701,7 +14711,7 @@
         <v>103987</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>1220</v>
       </c>
@@ -14721,7 +14731,7 @@
         <v>105806</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>1201</v>
       </c>
@@ -14741,7 +14751,7 @@
         <v>105753</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>1324</v>
       </c>
@@ -14761,7 +14771,7 @@
         <v>105663</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>1221</v>
       </c>
@@ -14781,7 +14791,7 @@
         <v>105637</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>1243</v>
       </c>
@@ -14801,7 +14811,7 @@
         <v>105575</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>1447</v>
       </c>
@@ -14821,7 +14831,7 @@
         <v>105419</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>1074</v>
       </c>
@@ -14841,7 +14851,7 @@
         <v>105280</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>1156</v>
       </c>
@@ -14861,7 +14871,7 @@
         <v>105279</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>1225</v>
       </c>
@@ -14913,7 +14923,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>1348</v>
       </c>
@@ -14933,7 +14943,7 @@
         <v>107269</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>1276</v>
       </c>
@@ -14953,7 +14963,7 @@
         <v>107132</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>1095</v>
       </c>
@@ -14973,7 +14983,7 @@
         <v>107103</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>908</v>
       </c>
@@ -14993,7 +15003,7 @@
         <v>107038</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>909</v>
       </c>
@@ -15013,7 +15023,7 @@
         <v>106972</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>1349</v>
       </c>
@@ -15033,7 +15043,7 @@
         <v>106956</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>1222</v>
       </c>
@@ -15053,7 +15063,7 @@
         <v>106866</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>1274</v>
       </c>
@@ -15073,7 +15083,7 @@
         <v>106711</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>1178</v>
       </c>
@@ -15093,7 +15103,7 @@
         <v>106701</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>1207</v>
       </c>
@@ -15113,7 +15123,7 @@
         <v>106511</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>1091</v>
       </c>
@@ -15133,7 +15143,7 @@
         <v>106447</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>992</v>
       </c>
@@ -15153,7 +15163,7 @@
         <v>108400</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>1188</v>
       </c>
@@ -15173,7 +15183,7 @@
         <v>108389</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>1189</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>108290</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>1238</v>
       </c>
@@ -15213,7 +15223,7 @@
         <v>108236</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>1247</v>
       </c>
@@ -15233,7 +15243,7 @@
         <v>108129</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>1273</v>
       </c>
@@ -15253,7 +15263,7 @@
         <v>107866</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>1442</v>
       </c>
@@ -15305,7 +15315,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>1411</v>
       </c>
@@ -15325,7 +15335,7 @@
         <v>107593</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>1330</v>
       </c>
@@ -15345,7 +15355,7 @@
         <v>107402</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>1138</v>
       </c>
@@ -15365,7 +15375,7 @@
         <v>107336</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>1077</v>
       </c>
@@ -15385,7 +15395,7 @@
         <v>107333</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>1196</v>
       </c>
@@ -15405,7 +15415,7 @@
         <v>107296</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A602">
         <v>1173</v>
       </c>
@@ -15425,7 +15435,7 @@
         <v>109625</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A603">
         <v>1379</v>
       </c>
@@ -15445,7 +15455,7 @@
         <v>109444</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A604">
         <v>829</v>
       </c>
@@ -15465,7 +15475,7 @@
         <v>109260</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A605">
         <v>1360</v>
       </c>
@@ -15485,7 +15495,7 @@
         <v>109248</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A606">
         <v>1087</v>
       </c>
@@ -15537,7 +15547,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A608">
         <v>1213</v>
       </c>
@@ -15557,7 +15567,7 @@
         <v>109085</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A609">
         <v>1226</v>
       </c>
@@ -15577,7 +15587,7 @@
         <v>109077</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A610">
         <v>1111</v>
       </c>
@@ -15597,7 +15607,7 @@
         <v>109037</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A611">
         <v>1202</v>
       </c>
@@ -15617,7 +15627,7 @@
         <v>108914</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A612">
         <v>1102</v>
       </c>
@@ -15637,7 +15647,7 @@
         <v>108828</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A613">
         <v>1113</v>
       </c>
@@ -15657,7 +15667,7 @@
         <v>108791</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A614">
         <v>1209</v>
       </c>
@@ -15677,7 +15687,7 @@
         <v>108583</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A615">
         <v>1250</v>
       </c>
@@ -15697,7 +15707,7 @@
         <v>108561</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A616">
         <v>1108</v>
       </c>
@@ -15717,7 +15727,7 @@
         <v>110621</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A617">
         <v>1177</v>
       </c>
@@ -15737,7 +15747,7 @@
         <v>110341</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A618">
         <v>1212</v>
       </c>
@@ -15757,7 +15767,7 @@
         <v>110195</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A619">
         <v>1162</v>
       </c>
@@ -15777,7 +15787,7 @@
         <v>110102</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A620">
         <v>907</v>
       </c>
@@ -15797,7 +15807,7 @@
         <v>109949</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A621">
         <v>1325</v>
       </c>
@@ -15817,7 +15827,7 @@
         <v>109881</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A622">
         <v>1146</v>
       </c>
@@ -15837,7 +15847,7 @@
         <v>109668</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A623">
         <v>1229</v>
       </c>
@@ -15857,7 +15867,7 @@
         <v>109634</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A624">
         <v>1157</v>
       </c>
@@ -15877,7 +15887,7 @@
         <v>111618</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A625">
         <v>1389</v>
       </c>
@@ -15897,7 +15907,7 @@
         <v>111518</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A626">
         <v>1142</v>
       </c>
@@ -15917,7 +15927,7 @@
         <v>111364</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A627">
         <v>1203</v>
       </c>
@@ -15937,7 +15947,7 @@
         <v>111319</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A628">
         <v>1017</v>
       </c>
@@ -15957,7 +15967,7 @@
         <v>111017</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A629">
         <v>1208</v>
       </c>
@@ -15977,7 +15987,7 @@
         <v>110785</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630">
         <v>1163</v>
       </c>
@@ -15997,7 +16007,7 @@
         <v>113097</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A631">
         <v>1312</v>
       </c>
@@ -16017,7 +16027,7 @@
         <v>112842</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A632">
         <v>1370</v>
       </c>
@@ -16037,7 +16047,7 @@
         <v>112830</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A633">
         <v>1170</v>
       </c>
@@ -16057,7 +16067,7 @@
         <v>112817</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A634">
         <v>1027</v>
       </c>
@@ -16077,7 +16087,7 @@
         <v>112575</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A635">
         <v>1443</v>
       </c>
@@ -16097,7 +16107,7 @@
         <v>112565</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A636">
         <v>1211</v>
       </c>
@@ -16117,7 +16127,7 @@
         <v>112481</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637">
         <v>779</v>
       </c>
@@ -16137,7 +16147,7 @@
         <v>112325</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A638">
         <v>1378</v>
       </c>
@@ -16157,7 +16167,7 @@
         <v>112273</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639">
         <v>1164</v>
       </c>
@@ -16177,7 +16187,7 @@
         <v>112204</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A640">
         <v>1300</v>
       </c>
@@ -16197,7 +16207,7 @@
         <v>112188</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A641">
         <v>1254</v>
       </c>
@@ -16217,7 +16227,7 @@
         <v>112146</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A642">
         <v>1316</v>
       </c>
@@ -16237,7 +16247,7 @@
         <v>112131</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A643">
         <v>1190</v>
       </c>
@@ -16257,7 +16267,7 @@
         <v>112129</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A644">
         <v>903</v>
       </c>
@@ -16277,7 +16287,7 @@
         <v>112090</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A645">
         <v>1261</v>
       </c>
@@ -16297,7 +16307,7 @@
         <v>114267</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A646">
         <v>1218</v>
       </c>
@@ -16317,7 +16327,7 @@
         <v>114232</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A647">
         <v>1308</v>
       </c>
@@ -16337,7 +16347,7 @@
         <v>114136</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A648">
         <v>1230</v>
       </c>
@@ -16389,7 +16399,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A650">
         <v>1174</v>
       </c>
@@ -16409,7 +16419,7 @@
         <v>113833</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A651">
         <v>1160</v>
       </c>
@@ -16429,7 +16439,7 @@
         <v>113670</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A652">
         <v>1005</v>
       </c>
@@ -16513,7 +16523,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A655">
         <v>1271</v>
       </c>
@@ -16565,7 +16575,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A657">
         <v>1214</v>
       </c>
@@ -16617,7 +16627,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A659">
         <v>1085</v>
       </c>
@@ -16637,7 +16647,7 @@
         <v>115061</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660">
         <v>1097</v>
       </c>
@@ -16657,7 +16667,7 @@
         <v>114971</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661">
         <v>1083</v>
       </c>
@@ -16677,7 +16687,7 @@
         <v>114853</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A662">
         <v>1241</v>
       </c>
@@ -16697,7 +16707,7 @@
         <v>114828</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663">
         <v>1022</v>
       </c>
@@ -16717,7 +16727,7 @@
         <v>114647</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A664">
         <v>1242</v>
       </c>
@@ -16737,7 +16747,7 @@
         <v>114523</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A665">
         <v>1134</v>
       </c>
@@ -16757,7 +16767,7 @@
         <v>114378</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666">
         <v>1132</v>
       </c>
@@ -16777,7 +16787,7 @@
         <v>116434</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A667">
         <v>1099</v>
       </c>
@@ -16797,7 +16807,7 @@
         <v>116428</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A668">
         <v>1183</v>
       </c>
@@ -16817,7 +16827,7 @@
         <v>116259</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A669">
         <v>1215</v>
       </c>
@@ -16837,7 +16847,7 @@
         <v>116120</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A670">
         <v>960</v>
       </c>
@@ -16857,7 +16867,7 @@
         <v>116053</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A671">
         <v>1098</v>
       </c>
@@ -16877,7 +16887,7 @@
         <v>116036</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672">
         <v>1256</v>
       </c>
@@ -16897,7 +16907,7 @@
         <v>116004</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A673">
         <v>1408</v>
       </c>
@@ -16917,7 +16927,7 @@
         <v>115995</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A674">
         <v>1270</v>
       </c>
@@ -16937,7 +16947,7 @@
         <v>115838</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A675">
         <v>1191</v>
       </c>
@@ -16957,7 +16967,7 @@
         <v>115766</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676">
         <v>1437</v>
       </c>
@@ -16977,7 +16987,7 @@
         <v>115725</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A677">
         <v>1231</v>
       </c>
@@ -16997,7 +17007,7 @@
         <v>115507</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A678">
         <v>1290</v>
       </c>
@@ -17049,7 +17059,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A680">
         <v>1082</v>
       </c>
@@ -17069,7 +17079,7 @@
         <v>115432</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A681">
         <v>1210</v>
       </c>
@@ -17089,7 +17099,7 @@
         <v>115422</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A682">
         <v>1279</v>
       </c>
@@ -17109,7 +17119,7 @@
         <v>117620</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A683">
         <v>1093</v>
       </c>
@@ -17129,7 +17139,7 @@
         <v>117257</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A684">
         <v>1293</v>
       </c>
@@ -17149,7 +17159,7 @@
         <v>117222</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A685">
         <v>1179</v>
       </c>
@@ -17169,7 +17179,7 @@
         <v>117218</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A686">
         <v>1428</v>
       </c>
@@ -17189,7 +17199,7 @@
         <v>117212</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A687">
         <v>804</v>
       </c>
@@ -17209,7 +17219,7 @@
         <v>117133</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A688">
         <v>1264</v>
       </c>
@@ -17229,7 +17239,7 @@
         <v>117070</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A689">
         <v>1148</v>
       </c>
@@ -17249,7 +17259,7 @@
         <v>117068</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690">
         <v>1259</v>
       </c>
@@ -17269,7 +17279,7 @@
         <v>117009</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A691">
         <v>1262</v>
       </c>
@@ -17289,7 +17299,7 @@
         <v>116770</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A692">
         <v>1175</v>
       </c>
@@ -17309,7 +17319,7 @@
         <v>116725</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A693">
         <v>1313</v>
       </c>
@@ -17329,7 +17339,7 @@
         <v>116623</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A694">
         <v>1249</v>
       </c>
@@ -17349,7 +17359,7 @@
         <v>116517</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A695">
         <v>1172</v>
       </c>
@@ -17369,7 +17379,7 @@
         <v>118653</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A696">
         <v>1253</v>
       </c>
@@ -17389,7 +17399,7 @@
         <v>118484</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A697">
         <v>1446</v>
       </c>
@@ -17441,7 +17451,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A699">
         <v>1414</v>
       </c>
@@ -17461,7 +17471,7 @@
         <v>118198</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A700">
         <v>1292</v>
       </c>
@@ -17481,7 +17491,7 @@
         <v>118117</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A701">
         <v>815</v>
       </c>
@@ -17533,7 +17543,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A703">
         <v>1159</v>
       </c>
@@ -17553,7 +17563,7 @@
         <v>117747</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A704">
         <v>1255</v>
       </c>
@@ -17573,7 +17583,7 @@
         <v>119739</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A705">
         <v>1236</v>
       </c>
@@ -17593,7 +17603,7 @@
         <v>119526</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A706">
         <v>1193</v>
       </c>
@@ -17613,7 +17623,7 @@
         <v>119395</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A707">
         <v>1371</v>
       </c>
@@ -17633,7 +17643,7 @@
         <v>119355</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A708">
         <v>1424</v>
       </c>
@@ -17653,7 +17663,7 @@
         <v>119266</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A709">
         <v>1303</v>
       </c>
@@ -17673,7 +17683,7 @@
         <v>119238</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A710">
         <v>1181</v>
       </c>
@@ -17693,7 +17703,7 @@
         <v>119195</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A711">
         <v>1168</v>
       </c>
@@ -17713,7 +17723,7 @@
         <v>119144</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A712">
         <v>1287</v>
       </c>
@@ -17733,7 +17743,7 @@
         <v>119029</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A713">
         <v>1439</v>
       </c>
@@ -17753,7 +17763,7 @@
         <v>118858</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A714">
         <v>1078</v>
       </c>
@@ -17773,7 +17783,7 @@
         <v>118840</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A715">
         <v>1368</v>
       </c>
@@ -17793,7 +17803,7 @@
         <v>120913</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A716">
         <v>1288</v>
       </c>
@@ -17813,7 +17823,7 @@
         <v>120878</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A717">
         <v>1429</v>
       </c>
@@ -17833,7 +17843,7 @@
         <v>120777</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A718">
         <v>1066</v>
       </c>
@@ -17853,7 +17863,7 @@
         <v>120478</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A719">
         <v>1080</v>
       </c>
@@ -17873,7 +17883,7 @@
         <v>120454</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A720">
         <v>858</v>
       </c>
@@ -17893,7 +17903,7 @@
         <v>120266</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A721">
         <v>1286</v>
       </c>
@@ -17913,7 +17923,7 @@
         <v>120132</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A722">
         <v>744</v>
       </c>
@@ -17933,7 +17943,7 @@
         <v>120007</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A723">
         <v>1217</v>
       </c>
@@ -17953,7 +17963,7 @@
         <v>119977</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A724">
         <v>845</v>
       </c>
@@ -17973,7 +17983,7 @@
         <v>119916</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A725">
         <v>1310</v>
       </c>
@@ -17993,7 +18003,7 @@
         <v>122097</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A726">
         <v>1224</v>
       </c>
@@ -18013,7 +18023,7 @@
         <v>122029</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A727">
         <v>1260</v>
       </c>
@@ -18033,7 +18043,7 @@
         <v>122015</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A728">
         <v>1296</v>
       </c>
@@ -18053,7 +18063,7 @@
         <v>121973</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A729">
         <v>1278</v>
       </c>
@@ -18073,7 +18083,7 @@
         <v>121889</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A730">
         <v>1307</v>
       </c>
@@ -18093,7 +18103,7 @@
         <v>121682</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A731">
         <v>1295</v>
       </c>
@@ -18113,7 +18123,7 @@
         <v>121592</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A732">
         <v>1432</v>
       </c>
@@ -18133,7 +18143,7 @@
         <v>121498</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A733">
         <v>1298</v>
       </c>
@@ -18153,7 +18163,7 @@
         <v>121496</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A734">
         <v>1088</v>
       </c>
@@ -18173,7 +18183,7 @@
         <v>121484</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A735">
         <v>1433</v>
       </c>
@@ -18193,7 +18203,7 @@
         <v>121268</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A736">
         <v>1425</v>
       </c>
@@ -18213,7 +18223,7 @@
         <v>121194</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A737">
         <v>766</v>
       </c>
@@ -18233,7 +18243,7 @@
         <v>123057</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A738">
         <v>784</v>
       </c>
@@ -18253,7 +18263,7 @@
         <v>123045</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A739">
         <v>1092</v>
       </c>
@@ -18273,7 +18283,7 @@
         <v>122811</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A740">
         <v>1103</v>
       </c>
@@ -18293,7 +18303,7 @@
         <v>122375</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A741">
         <v>1180</v>
       </c>
@@ -18313,7 +18323,7 @@
         <v>122373</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A742">
         <v>765</v>
       </c>
@@ -18333,7 +18343,7 @@
         <v>122320</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A743">
         <v>1252</v>
       </c>
@@ -18353,7 +18363,7 @@
         <v>122163</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A744">
         <v>1165</v>
       </c>
@@ -18373,7 +18383,7 @@
         <v>124232</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A745">
         <v>1106</v>
       </c>
@@ -18393,7 +18403,7 @@
         <v>124222</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A746">
         <v>1195</v>
       </c>
@@ -18413,7 +18423,7 @@
         <v>124195</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A747">
         <v>1434</v>
       </c>
@@ -18433,7 +18443,7 @@
         <v>123990</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A748">
         <v>1192</v>
       </c>
@@ -18453,7 +18463,7 @@
         <v>123558</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A749">
         <v>1199</v>
       </c>
@@ -18473,7 +18483,7 @@
         <v>123371</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A750">
         <v>1204</v>
       </c>
@@ -18493,7 +18503,7 @@
         <v>125550</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A751">
         <v>1263</v>
       </c>
@@ -18545,7 +18555,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A753">
         <v>1418</v>
       </c>
@@ -18565,7 +18575,7 @@
         <v>124689</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A754">
         <v>1301</v>
       </c>
@@ -18585,7 +18595,7 @@
         <v>124578</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A755">
         <v>1426</v>
       </c>
@@ -18605,7 +18615,7 @@
         <v>124574</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A756">
         <v>1086</v>
       </c>
@@ -18625,7 +18635,7 @@
         <v>126657</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A757">
         <v>1265</v>
       </c>
@@ -18645,7 +18655,7 @@
         <v>126533</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A758">
         <v>1101</v>
       </c>
@@ -18665,7 +18675,7 @@
         <v>126300</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A759">
         <v>1359</v>
       </c>
@@ -18685,7 +18695,7 @@
         <v>126248</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A760">
         <v>1305</v>
       </c>
@@ -18705,7 +18715,7 @@
         <v>126157</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A761">
         <v>959</v>
       </c>
@@ -18725,7 +18735,7 @@
         <v>126059</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A762">
         <v>1356</v>
       </c>
@@ -18745,7 +18755,7 @@
         <v>125788</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A763">
         <v>1417</v>
       </c>
@@ -18765,7 +18775,7 @@
         <v>125637</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A764">
         <v>1309</v>
       </c>
@@ -18785,7 +18795,7 @@
         <v>127353</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A765">
         <v>1363</v>
       </c>
@@ -18837,7 +18847,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A767">
         <v>1266</v>
       </c>
@@ -18921,7 +18931,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A770">
         <v>1422</v>
       </c>
@@ -18941,7 +18951,7 @@
         <v>128632</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A771">
         <v>1100</v>
       </c>
@@ -18961,7 +18971,7 @@
         <v>128526</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A772">
         <v>1171</v>
       </c>
@@ -18981,7 +18991,7 @@
         <v>128182</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A773">
         <v>1105</v>
       </c>
@@ -19001,7 +19011,7 @@
         <v>128082</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A774">
         <v>1120</v>
       </c>
@@ -19021,7 +19031,7 @@
         <v>127895</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A775">
         <v>1306</v>
       </c>
@@ -19041,7 +19051,7 @@
         <v>130016</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A776">
         <v>1267</v>
       </c>
@@ -19061,7 +19071,7 @@
         <v>129981</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A777">
         <v>1445</v>
       </c>
@@ -19081,7 +19091,7 @@
         <v>129509</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A778">
         <v>1187</v>
       </c>
@@ -19101,7 +19111,7 @@
         <v>129471</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A779">
         <v>674</v>
       </c>
@@ -19121,7 +19131,7 @@
         <v>129450</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A780">
         <v>1407</v>
       </c>
@@ -19141,7 +19151,7 @@
         <v>129227</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A781">
         <v>1084</v>
       </c>
@@ -19161,7 +19171,7 @@
         <v>129204</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A782">
         <v>1131</v>
       </c>
@@ -19181,7 +19191,7 @@
         <v>129072</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A783">
         <v>762</v>
       </c>
@@ -19201,7 +19211,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A784">
         <v>767</v>
       </c>
@@ -19221,7 +19231,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A785">
         <v>800</v>
       </c>
@@ -19241,7 +19251,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A786">
         <v>978</v>
       </c>
@@ -19261,7 +19271,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A787">
         <v>1096</v>
       </c>
@@ -19281,7 +19291,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A788">
         <v>1104</v>
       </c>
@@ -19301,7 +19311,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A789">
         <v>1107</v>
       </c>
@@ -19321,7 +19331,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A790">
         <v>1109</v>
       </c>
@@ -19341,7 +19351,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A791">
         <v>1110</v>
       </c>
@@ -19361,7 +19371,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A792">
         <v>1112</v>
       </c>
@@ -19381,7 +19391,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A793">
         <v>1114</v>
       </c>
@@ -19401,7 +19411,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A794">
         <v>1115</v>
       </c>
@@ -19421,7 +19431,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A795">
         <v>1116</v>
       </c>
@@ -19441,7 +19451,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A796">
         <v>1117</v>
       </c>
@@ -19461,7 +19471,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A797">
         <v>1118</v>
       </c>
@@ -19481,7 +19491,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A798">
         <v>1119</v>
       </c>
@@ -19501,7 +19511,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A799">
         <v>1121</v>
       </c>
@@ -19521,7 +19531,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A800">
         <v>1122</v>
       </c>
@@ -19541,7 +19551,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A801">
         <v>1123</v>
       </c>
@@ -19561,7 +19571,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A802">
         <v>1124</v>
       </c>
@@ -19581,7 +19591,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A803">
         <v>1125</v>
       </c>
@@ -19601,7 +19611,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A804">
         <v>1126</v>
       </c>
@@ -19621,7 +19631,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A805">
         <v>1127</v>
       </c>
@@ -19641,7 +19651,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A806">
         <v>1128</v>
       </c>
@@ -19661,7 +19671,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A807">
         <v>1129</v>
       </c>
@@ -19681,7 +19691,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A808">
         <v>1130</v>
       </c>
@@ -19701,7 +19711,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A809">
         <v>1133</v>
       </c>
@@ -19721,7 +19731,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A810">
         <v>1198</v>
       </c>
@@ -19741,7 +19751,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A811">
         <v>1219</v>
       </c>
@@ -19761,7 +19771,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A812">
         <v>1269</v>
       </c>
@@ -19781,7 +19791,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A813">
         <v>1289</v>
       </c>
@@ -19801,7 +19811,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A814">
         <v>1297</v>
       </c>
@@ -19821,7 +19831,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A815">
         <v>1302</v>
       </c>
@@ -19841,7 +19851,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A816">
         <v>1304</v>
       </c>
@@ -19861,7 +19871,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A817">
         <v>1311</v>
       </c>
@@ -19881,7 +19891,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A818">
         <v>1332</v>
       </c>
@@ -19901,7 +19911,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A819">
         <v>1343</v>
       </c>
@@ -19921,7 +19931,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A820">
         <v>1344</v>
       </c>
@@ -19941,7 +19951,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A821">
         <v>1365</v>
       </c>
@@ -19961,7 +19971,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A822">
         <v>1374</v>
       </c>
@@ -19981,7 +19991,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A823">
         <v>1412</v>
       </c>
@@ -20001,7 +20011,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A824">
         <v>1415</v>
       </c>
@@ -20021,7 +20031,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A825">
         <v>1416</v>
       </c>
@@ -20041,7 +20051,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A826">
         <v>1421</v>
       </c>
@@ -20061,7 +20071,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A827">
         <v>1427</v>
       </c>
@@ -20081,7 +20091,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A828">
         <v>1431</v>
       </c>
@@ -20101,7 +20111,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A829">
         <v>1435</v>
       </c>
@@ -20121,7 +20131,7 @@
         <v>131118</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A830">
         <v>1436</v>
       </c>
@@ -20465,7 +20475,7 @@
         <v>51830</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A846">
         <v>1441</v>
       </c>
@@ -20525,7 +20535,7 @@
         <v>51431</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A849">
         <v>1448</v>
       </c>
@@ -21201,7 +21211,7 @@
         <v>48651</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A878">
         <v>802</v>
       </c>
@@ -22221,7 +22231,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A926">
         <v>1444</v>
       </c>
@@ -22421,7 +22431,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A936">
         <v>1440</v>
       </c>
@@ -25317,7 +25327,7 @@
         <v>33523</v>
       </c>
     </row>
-    <row r="1076" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1076" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1076">
         <v>1283</v>
       </c>
